--- a/Encode_Decode/draw/data/data_position.xlsx
+++ b/Encode_Decode/draw/data/data_position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\OOC\LEDs_Data_Processing\Encode_Decode\draw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F04B26-7D28-4CEE-B73D-ED0777731CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBE1A8-DDC6-4A50-A80F-6064EAD30E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yaw0pitch0roll0" sheetId="1" r:id="rId1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
         <v>124.06</v>
       </c>
       <c r="G2">
-        <f>(D2-A2)</f>
+        <f t="shared" ref="G2:G65" si="0">(D2-A2)</f>
         <v>-4.0600000000000023</v>
       </c>
       <c r="H2">
-        <f>(E2-B2)</f>
+        <f t="shared" ref="H2:H65" si="1">(E2-B2)</f>
         <v>-4.0000000000006253E-2</v>
       </c>
       <c r="I2">
-        <f>F2-C2</f>
+        <f t="shared" ref="I2:I65" si="2">F2-C2</f>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J2">
@@ -610,15 +610,15 @@
         <v>121.3</v>
       </c>
       <c r="G3">
-        <f>(D3-A3)</f>
+        <f t="shared" si="0"/>
         <v>-3.2000000000000028</v>
       </c>
       <c r="H3">
-        <f>(E3-B3)</f>
+        <f t="shared" si="1"/>
         <v>-2.0200000000000031</v>
       </c>
       <c r="I3">
-        <f>F3-C3</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J3">
@@ -626,7 +626,7 @@
         <v>3.7842304369580919</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SQRT(G3*G3+H3*H3+I3*I3)</f>
+        <f t="shared" ref="K3:K66" si="3">SQRT(G3*G3+H3*H3+I3*I3)</f>
         <v>5.29248523852453</v>
       </c>
     </row>
@@ -650,23 +650,23 @@
         <v>121.3</v>
       </c>
       <c r="G4">
-        <f>(D4-A4)</f>
+        <f t="shared" si="0"/>
         <v>-5.8100000000000023</v>
       </c>
       <c r="H4">
-        <f>(E4-B4)</f>
+        <f t="shared" si="1"/>
         <v>1.1700000000000017</v>
       </c>
       <c r="I4">
-        <f>F4-C4</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J3:J66" si="1" xml:space="preserve"> SQRT(G4*G4+H4*H4)</f>
+        <f t="shared" ref="J4:J66" si="4" xml:space="preserve"> SQRT(G4*G4+H4*H4)</f>
         <v>5.9266347955648513</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.9867732180170306</v>
       </c>
     </row>
@@ -690,23 +690,23 @@
         <v>121.3</v>
       </c>
       <c r="G5">
-        <f>(D5-A5)</f>
+        <f t="shared" si="0"/>
         <v>-1.9599999999999937</v>
       </c>
       <c r="H5">
-        <f>(E5-B5)</f>
+        <f t="shared" si="1"/>
         <v>-5.25</v>
       </c>
       <c r="I5">
-        <f>F5-C5</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.6039361166951194</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7152140695587654</v>
       </c>
     </row>
@@ -730,23 +730,23 @@
         <v>121.28</v>
       </c>
       <c r="G6">
-        <f>(D6-A6)</f>
+        <f t="shared" si="0"/>
         <v>-2.0499999999999972</v>
       </c>
       <c r="H6">
-        <f>(E6-B6)</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="I6">
-        <f>F6-C6</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0597329924045953</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2521641548745484</v>
       </c>
     </row>
@@ -770,23 +770,23 @@
         <v>115.4</v>
       </c>
       <c r="G7">
-        <f>(D7-A7)</f>
+        <f t="shared" si="0"/>
         <v>-2.8700000000000045</v>
       </c>
       <c r="H7">
-        <f>(E7-B7)</f>
+        <f t="shared" si="1"/>
         <v>-2.5300000000000011</v>
       </c>
       <c r="I7">
-        <f>F7-C7</f>
+        <f t="shared" si="2"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8259377935350742</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.334302105125431</v>
       </c>
     </row>
@@ -810,23 +810,23 @@
         <v>118.42</v>
       </c>
       <c r="G8">
-        <f>(D8-A8)</f>
+        <f t="shared" si="0"/>
         <v>-4.0600000000000023</v>
       </c>
       <c r="H8">
-        <f>(E8-B8)</f>
+        <f t="shared" si="1"/>
         <v>-3.1799999999999997</v>
       </c>
       <c r="I8">
-        <f>F8-C8</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.1571309853444687</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3601674624375786</v>
       </c>
     </row>
@@ -850,23 +850,23 @@
         <v>121.28</v>
       </c>
       <c r="G9">
-        <f>(D9-A9)</f>
+        <f t="shared" si="0"/>
         <v>-2.9699999999999989</v>
       </c>
       <c r="H9">
-        <f>(E9-B9)</f>
+        <f t="shared" si="1"/>
         <v>2.13</v>
       </c>
       <c r="I9">
-        <f>F9-C9</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.6548324174987821</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.2149976030675207</v>
       </c>
     </row>
@@ -890,23 +890,23 @@
         <v>121.28</v>
       </c>
       <c r="G10">
-        <f>(D10-A10)</f>
+        <f t="shared" si="0"/>
         <v>-1.519999999999996</v>
       </c>
       <c r="H10">
-        <f>(E10-B10)</f>
+        <f t="shared" si="1"/>
         <v>0.60999999999999943</v>
       </c>
       <c r="I10">
-        <f>F10-C10</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6378339354159162</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.0645910003344712</v>
       </c>
     </row>
@@ -930,23 +930,23 @@
         <v>118.39</v>
       </c>
       <c r="G11">
-        <f>(D11-A11)</f>
+        <f t="shared" si="0"/>
         <v>-3.75</v>
       </c>
       <c r="H11">
-        <f>(E11-B11)</f>
+        <f t="shared" si="1"/>
         <v>-0.62999999999999901</v>
       </c>
       <c r="I11">
-        <f>F11-C11</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8025517747954463</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6257130814108125</v>
       </c>
     </row>
@@ -970,23 +970,23 @@
         <v>121.3</v>
       </c>
       <c r="G12">
-        <f>(D12-A12)</f>
+        <f t="shared" si="0"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="H12">
-        <f>(E12-B12)</f>
+        <f t="shared" si="1"/>
         <v>0.55000000000000071</v>
       </c>
       <c r="I12">
-        <f>F12-C12</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.61717096496838009</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.7511198327966042</v>
       </c>
     </row>
@@ -1010,23 +1010,23 @@
         <v>121.28</v>
       </c>
       <c r="G13">
-        <f>(D13-A13)</f>
+        <f t="shared" si="0"/>
         <v>-2.5100000000000051</v>
       </c>
       <c r="H13">
-        <f>(E13-B13)</f>
+        <f t="shared" si="1"/>
         <v>2.1700000000000017</v>
       </c>
       <c r="I13">
-        <f>F13-C13</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3179813139919929</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.9847166418965099</v>
       </c>
     </row>
@@ -1050,23 +1050,23 @@
         <v>124.06</v>
       </c>
       <c r="G14">
-        <f>(D14-A14)</f>
+        <f t="shared" si="0"/>
         <v>-0.93000000000000682</v>
       </c>
       <c r="H14">
-        <f>(E14-B14)</f>
+        <f t="shared" si="1"/>
         <v>0.34000000000000341</v>
       </c>
       <c r="I14">
-        <f>F14-C14</f>
+        <f t="shared" si="2"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99020199959402977</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3653204751998744</v>
       </c>
     </row>
@@ -1090,23 +1090,23 @@
         <v>115.4</v>
       </c>
       <c r="G15">
-        <f>(D15-A15)</f>
+        <f t="shared" si="0"/>
         <v>-6.3100000000000023</v>
       </c>
       <c r="H15">
-        <f>(E15-B15)</f>
+        <f t="shared" si="1"/>
         <v>8.6800000000000068</v>
       </c>
       <c r="I15">
-        <f>F15-C15</f>
+        <f t="shared" si="2"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.73119285075057</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.398558955673309</v>
       </c>
     </row>
@@ -1130,23 +1130,23 @@
         <v>118.39</v>
       </c>
       <c r="G16">
-        <f>(D16-A16)</f>
+        <f t="shared" si="0"/>
         <v>-4.8499999999999943</v>
       </c>
       <c r="H16">
-        <f>(E16-B16)</f>
+        <f t="shared" si="1"/>
         <v>6.6800000000000068</v>
       </c>
       <c r="I16">
-        <f>F16-C16</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.254992428827542</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.575301414144185</v>
       </c>
     </row>
@@ -1170,23 +1170,23 @@
         <v>118.39</v>
       </c>
       <c r="G17">
-        <f>(D17-A17)</f>
+        <f t="shared" si="0"/>
         <v>-7.8299999999999983</v>
       </c>
       <c r="H17">
-        <f>(E17-B17)</f>
+        <f t="shared" si="1"/>
         <v>0.18999999999999773</v>
       </c>
       <c r="I17">
-        <f>F17-C17</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.8323048970274369</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.248760900713801</v>
       </c>
     </row>
@@ -1210,23 +1210,23 @@
         <v>121.28</v>
       </c>
       <c r="G18">
-        <f>(D18-A18)</f>
+        <f t="shared" si="0"/>
         <v>-5.0400000000000063</v>
       </c>
       <c r="H18">
-        <f>(E18-B18)</f>
+        <f t="shared" si="1"/>
         <v>-1.5200000000000031</v>
       </c>
       <c r="I18">
-        <f>F18-C18</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2642188404358787</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.445959975054147</v>
       </c>
     </row>
@@ -1250,23 +1250,23 @@
         <v>121.3</v>
       </c>
       <c r="G19">
-        <f>(D19-A19)</f>
+        <f t="shared" si="0"/>
         <v>-5.519999999999996</v>
       </c>
       <c r="H19">
-        <f>(E19-B19)</f>
+        <f t="shared" si="1"/>
         <v>1.8599999999999994</v>
       </c>
       <c r="I19">
-        <f>F19-C19</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.8249463516842752</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.9007245996344446</v>
       </c>
     </row>
@@ -1290,23 +1290,23 @@
         <v>121.3</v>
       </c>
       <c r="G20">
-        <f>(D20-A20)</f>
+        <f t="shared" si="0"/>
         <v>-3.0200000000000031</v>
       </c>
       <c r="H20">
-        <f>(E20-B20)</f>
+        <f t="shared" si="1"/>
         <v>1.490000000000002</v>
       </c>
       <c r="I20">
-        <f>F20-C20</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3675658865121001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.0030490703170249</v>
       </c>
     </row>
@@ -1330,23 +1330,23 @@
         <v>118.39</v>
       </c>
       <c r="G21">
-        <f>(D21-A21)</f>
+        <f t="shared" si="0"/>
         <v>-6.7399999999999949</v>
       </c>
       <c r="H21">
-        <f>(E21-B21)</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="I21">
-        <f>F21-C21</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.9510862460481624</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.5921686807520192</v>
       </c>
     </row>
@@ -1370,23 +1370,23 @@
         <v>115.4</v>
       </c>
       <c r="G22">
-        <f>(D22-A22)</f>
+        <f t="shared" si="0"/>
         <v>-5.6599999999999966</v>
       </c>
       <c r="H22">
-        <f>(E22-B22)</f>
+        <f t="shared" si="1"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="I22">
-        <f>F22-C22</f>
+        <f t="shared" si="2"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.453340220381997</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.567437054075542</v>
       </c>
     </row>
@@ -1410,23 +1410,23 @@
         <v>115.43</v>
       </c>
       <c r="G23">
-        <f>(D23-A23)</f>
+        <f t="shared" si="0"/>
         <v>-7.3100000000000023</v>
       </c>
       <c r="H23">
-        <f>(E23-B23)</f>
+        <f t="shared" si="1"/>
         <v>4.62</v>
       </c>
       <c r="I23">
-        <f>F23-C23</f>
+        <f t="shared" si="2"/>
         <v>-9.5699999999999932</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.647571913548914</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.898271201986718</v>
       </c>
     </row>
@@ -1450,23 +1450,23 @@
         <v>121.28</v>
       </c>
       <c r="G24">
-        <f>(D24-A24)</f>
+        <f t="shared" si="0"/>
         <v>-3.0200000000000031</v>
       </c>
       <c r="H24">
-        <f>(E24-B24)</f>
+        <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
       <c r="I24">
-        <f>F24-C24</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.194056981332678</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.9031010595336513</v>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
         <v>115.4</v>
       </c>
       <c r="G25">
-        <f>(D25-A25)</f>
+        <f t="shared" si="0"/>
         <v>-3.6499999999999986</v>
       </c>
       <c r="H25">
-        <f>(E25-B25)</f>
+        <f t="shared" si="1"/>
         <v>3.3499999999999996</v>
       </c>
       <c r="I25">
-        <f>F25-C25</f>
+        <f t="shared" si="2"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9542910693660289</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.803008840133376</v>
       </c>
     </row>
@@ -1530,23 +1530,23 @@
         <v>112.29</v>
       </c>
       <c r="G26">
-        <f>(D26-A26)</f>
+        <f t="shared" si="0"/>
         <v>-2.8900000000000006</v>
       </c>
       <c r="H26">
-        <f>(E26-B26)</f>
+        <f t="shared" si="1"/>
         <v>4.0399999999999991</v>
       </c>
       <c r="I26">
-        <f>F26-C26</f>
+        <f t="shared" si="2"/>
         <v>-12.709999999999994</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9672628277553423</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.646164296240897</v>
       </c>
     </row>
@@ -1570,15 +1570,15 @@
         <v>118.39</v>
       </c>
       <c r="G27">
-        <f>(D27-A27)</f>
+        <f t="shared" si="0"/>
         <v>-4.2800000000000011</v>
       </c>
       <c r="H27">
-        <f>(E27-B27)</f>
+        <f t="shared" si="1"/>
         <v>0.23999999999999844</v>
       </c>
       <c r="I27">
-        <f>F27-C27</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J27">
@@ -1586,7 +1586,7 @@
         <v>4.2867236906523392</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.8783310415341141</v>
       </c>
     </row>
@@ -1610,23 +1610,23 @@
         <v>118.42</v>
       </c>
       <c r="G28">
-        <f>(D28-A28)</f>
+        <f t="shared" si="0"/>
         <v>-1.7999999999999972</v>
       </c>
       <c r="H28">
-        <f>(E28-B28)</f>
+        <f t="shared" si="1"/>
         <v>3.3400000000000034</v>
       </c>
       <c r="I28">
-        <f>F28-C28</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7941533970043979</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5955249983131514</v>
       </c>
     </row>
@@ -1650,23 +1650,23 @@
         <v>121.28</v>
       </c>
       <c r="G29">
-        <f>(D29-A29)</f>
+        <f t="shared" si="0"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="H29">
-        <f>(E29-B29)</f>
+        <f t="shared" si="1"/>
         <v>6.009999999999998</v>
       </c>
       <c r="I29">
-        <f>F29-C29</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.5886341528423014</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5662738517714248</v>
       </c>
     </row>
@@ -1690,23 +1690,23 @@
         <v>118.39</v>
       </c>
       <c r="G30">
-        <f>(D30-A30)</f>
+        <f t="shared" si="0"/>
         <v>-2.7000000000000028</v>
       </c>
       <c r="H30">
-        <f>(E30-B30)</f>
+        <f t="shared" si="1"/>
         <v>7.8100000000000023</v>
       </c>
       <c r="I30">
-        <f>F30-C30</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.2635404034832458</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.581975240946278</v>
       </c>
     </row>
@@ -1730,23 +1730,23 @@
         <v>121.3</v>
       </c>
       <c r="G31">
-        <f>(D31-A31)</f>
+        <f t="shared" si="0"/>
         <v>1.0600000000000023</v>
       </c>
       <c r="H31">
-        <f>(E31-B31)</f>
+        <f t="shared" si="1"/>
         <v>7.4300000000000068</v>
       </c>
       <c r="I31">
-        <f>F31-C31</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5052315087544175</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3677057787663713</v>
       </c>
     </row>
@@ -1770,23 +1770,23 @@
         <v>121.23</v>
       </c>
       <c r="G32">
-        <f>(D32-A32)</f>
+        <f t="shared" si="0"/>
         <v>-4.8699999999999974</v>
       </c>
       <c r="H32">
-        <f>(E32-B32)</f>
+        <f t="shared" si="1"/>
         <v>0.84999999999999432</v>
       </c>
       <c r="I32">
-        <f>F32-C32</f>
+        <f t="shared" si="2"/>
         <v>-3.769999999999996</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9436221538463032</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2170973934787233</v>
       </c>
     </row>
@@ -1810,23 +1810,23 @@
         <v>121.86</v>
       </c>
       <c r="G33">
-        <f>(D33-A33)</f>
+        <f t="shared" si="0"/>
         <v>-3.6599999999999966</v>
       </c>
       <c r="H33">
-        <f>(E33-B33)</f>
+        <f t="shared" si="1"/>
         <v>2.5600000000000023</v>
       </c>
       <c r="I33">
-        <f>F33-C33</f>
+        <f t="shared" si="2"/>
         <v>-3.1400000000000006</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.4664527311950799</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.4597435837225898</v>
       </c>
     </row>
@@ -1850,23 +1850,23 @@
         <v>121.3</v>
       </c>
       <c r="G34">
-        <f>(D34-A34)</f>
+        <f t="shared" si="0"/>
         <v>-4.240000000000002</v>
       </c>
       <c r="H34">
-        <f>(E34-B34)</f>
+        <f t="shared" si="1"/>
         <v>1.759999999999998</v>
       </c>
       <c r="I34">
-        <f>F34-C34</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5907733553291443</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8962021674973144</v>
       </c>
     </row>
@@ -1890,23 +1890,23 @@
         <v>118.98</v>
       </c>
       <c r="G35">
-        <f>(D35-A35)</f>
+        <f t="shared" si="0"/>
         <v>-3.8900000000000006</v>
       </c>
       <c r="H35">
-        <f>(E35-B35)</f>
+        <f t="shared" si="1"/>
         <v>2.3800000000000026</v>
       </c>
       <c r="I35">
-        <f>F35-C35</f>
+        <f t="shared" si="2"/>
         <v>-6.019999999999996</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5603179713699804</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5522778020938803</v>
       </c>
     </row>
@@ -1930,23 +1930,23 @@
         <v>118.64</v>
       </c>
       <c r="G36">
-        <f>(D36-A36)</f>
+        <f t="shared" si="0"/>
         <v>-4.25</v>
       </c>
       <c r="H36">
-        <f>(E36-B36)</f>
+        <f t="shared" si="1"/>
         <v>1.4400000000000013</v>
       </c>
       <c r="I36">
-        <f>F36-C36</f>
+        <f t="shared" si="2"/>
         <v>-6.3599999999999994</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.4873265983210988</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.7836816481662447</v>
       </c>
     </row>
@@ -1970,23 +1970,23 @@
         <v>118.39</v>
       </c>
       <c r="G37">
-        <f>(D37-A37)</f>
+        <f t="shared" si="0"/>
         <v>-4.1599999999999966</v>
       </c>
       <c r="H37">
-        <f>(E37-B37)</f>
+        <f t="shared" si="1"/>
         <v>2.129999999999999</v>
       </c>
       <c r="I37">
-        <f>F37-C37</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.6735960458730244</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.0953443410394819</v>
       </c>
     </row>
@@ -2010,23 +2010,23 @@
         <v>118.42</v>
       </c>
       <c r="G38">
-        <f>(D38-A38)</f>
+        <f t="shared" si="0"/>
         <v>-3.1799999999999997</v>
       </c>
       <c r="H38">
-        <f>(E38-B38)</f>
+        <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
       <c r="I38">
-        <f>F38-C38</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8725314717894803</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.634978716407792</v>
       </c>
     </row>
@@ -2050,23 +2050,23 @@
         <v>121.3</v>
       </c>
       <c r="G39">
-        <f>(D39-A39)</f>
+        <f t="shared" si="0"/>
         <v>-2.7000000000000028</v>
       </c>
       <c r="H39">
-        <f>(E39-B39)</f>
+        <f t="shared" si="1"/>
         <v>-0.43</v>
       </c>
       <c r="I39">
-        <f>F39-C39</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7340263349134029</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6005325778653097</v>
       </c>
     </row>
@@ -2090,23 +2090,23 @@
         <v>115.43</v>
       </c>
       <c r="G40">
-        <f>(D40-A40)</f>
+        <f t="shared" si="0"/>
         <v>-5.7000000000000028</v>
       </c>
       <c r="H40">
-        <f>(E40-B40)</f>
+        <f t="shared" si="1"/>
         <v>1.7799999999999994</v>
       </c>
       <c r="I40">
-        <f>F40-C40</f>
+        <f t="shared" si="2"/>
         <v>-9.5699999999999932</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9714654817724622</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.280217196490495</v>
       </c>
     </row>
@@ -2130,23 +2130,23 @@
         <v>118.42</v>
       </c>
       <c r="G41">
-        <f>(D41-A41)</f>
+        <f t="shared" si="0"/>
         <v>-2.5600000000000023</v>
       </c>
       <c r="H41">
-        <f>(E41-B41)</f>
+        <f t="shared" si="1"/>
         <v>1.6099999999999994</v>
       </c>
       <c r="I41">
-        <f>F41-C41</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0241858408503948</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.2416917912874466</v>
       </c>
     </row>
@@ -2170,23 +2170,23 @@
         <v>118.39</v>
       </c>
       <c r="G42">
-        <f>(D42-A42)</f>
+        <f t="shared" si="0"/>
         <v>-2.509999999999998</v>
       </c>
       <c r="H42">
-        <f>(E42-B42)</f>
+        <f t="shared" si="1"/>
         <v>1.879999999999999</v>
       </c>
       <c r="I42">
-        <f>F42-C42</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1360006377550351</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.3161875317681666</v>
       </c>
     </row>
@@ -2210,23 +2210,23 @@
         <v>115.43</v>
       </c>
       <c r="G43">
-        <f>(D43-A43)</f>
+        <f t="shared" si="0"/>
         <v>-3.0200000000000031</v>
       </c>
       <c r="H43">
-        <f>(E43-B43)</f>
+        <f t="shared" si="1"/>
         <v>4.6499999999999986</v>
       </c>
       <c r="I43">
-        <f>F43-C43</f>
+        <f t="shared" si="2"/>
         <v>-9.5699999999999932</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5446280308060345</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.060189871787911</v>
       </c>
     </row>
@@ -2250,23 +2250,23 @@
         <v>118.42</v>
       </c>
       <c r="G44">
-        <f>(D44-A44)</f>
+        <f t="shared" si="0"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="H44">
-        <f>(E44-B44)</f>
+        <f t="shared" si="1"/>
         <v>5.509999999999998</v>
       </c>
       <c r="I44">
-        <f>F44-C44</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5846396481778457</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.6304461066621538</v>
       </c>
     </row>
@@ -2290,23 +2290,23 @@
         <v>121.3</v>
       </c>
       <c r="G45">
-        <f>(D45-A45)</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="H45">
-        <f>(E45-B45)</f>
+        <f t="shared" si="1"/>
         <v>5.4500000000000028</v>
       </c>
       <c r="I45">
-        <f>F45-C45</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.450229352972225</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5874881404067862</v>
       </c>
     </row>
@@ -2330,23 +2330,23 @@
         <v>118.42</v>
       </c>
       <c r="G46">
-        <f>(D46-A46)</f>
+        <f t="shared" si="0"/>
         <v>1.3800000000000026</v>
       </c>
       <c r="H46">
-        <f>(E46-B46)</f>
+        <f t="shared" si="1"/>
         <v>5.4099999999999966</v>
       </c>
       <c r="I46">
-        <f>F46-C46</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5832338299591182</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.6295364881319063</v>
       </c>
     </row>
@@ -2370,23 +2370,23 @@
         <v>121.3</v>
       </c>
       <c r="G47">
-        <f>(D47-A47)</f>
+        <f t="shared" si="0"/>
         <v>-2.7899999999999991</v>
       </c>
       <c r="H47">
-        <f>(E47-B47)</f>
+        <f t="shared" si="1"/>
         <v>-0.32999999999999829</v>
       </c>
       <c r="I47">
-        <f>F47-C47</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.809448344426356</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6457507466501058</v>
       </c>
     </row>
@@ -2410,23 +2410,23 @@
         <v>112.32</v>
       </c>
       <c r="G48">
-        <f>(D48-A48)</f>
+        <f t="shared" si="0"/>
         <v>-3.240000000000002</v>
       </c>
       <c r="H48">
-        <f>(E48-B48)</f>
+        <f t="shared" si="1"/>
         <v>-2.1599999999999966</v>
       </c>
       <c r="I48">
-        <f>F48-C48</f>
+        <f t="shared" si="2"/>
         <v>-12.680000000000007</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.893995377501108</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.264448725823481</v>
       </c>
     </row>
@@ -2450,23 +2450,23 @@
         <v>121.28</v>
       </c>
       <c r="G49">
-        <f>(D49-A49)</f>
+        <f t="shared" si="0"/>
         <v>-3.7800000000000011</v>
       </c>
       <c r="H49">
-        <f>(E49-B49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I49">
-        <f>F49-C49</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.2764938910280241</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.6680508113459958</v>
       </c>
     </row>
@@ -2490,23 +2490,23 @@
         <v>121.3</v>
       </c>
       <c r="G50">
-        <f>(D50-A50)</f>
+        <f t="shared" si="0"/>
         <v>-1.5200000000000031</v>
       </c>
       <c r="H50">
-        <f>(E50-B50)</f>
+        <f t="shared" si="1"/>
         <v>2.8100000000000023</v>
       </c>
       <c r="I50">
-        <f>F50-C50</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1947613369389618</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.888404647735296</v>
       </c>
     </row>
@@ -2530,23 +2530,23 @@
         <v>118.42</v>
       </c>
       <c r="G51">
-        <f>(D51-A51)</f>
+        <f t="shared" si="0"/>
         <v>-4.0799999999999983</v>
       </c>
       <c r="H51">
-        <f>(E51-B51)</f>
+        <f t="shared" si="1"/>
         <v>4.3900000000000006</v>
       </c>
       <c r="I51">
-        <f>F51-C51</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9932044850814155</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.900275276641727</v>
       </c>
     </row>
@@ -2570,23 +2570,23 @@
         <v>118.39</v>
       </c>
       <c r="G52">
-        <f>(D52-A52)</f>
+        <f t="shared" si="0"/>
         <v>-2.8900000000000006</v>
       </c>
       <c r="H52">
-        <f>(E52-B52)</f>
+        <f t="shared" si="1"/>
         <v>3.7600000000000016</v>
       </c>
       <c r="I52">
-        <f>F52-C52</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.7423306506400431</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.135219726596203</v>
       </c>
     </row>
@@ -2610,23 +2610,23 @@
         <v>121.28</v>
       </c>
       <c r="G53">
-        <f>(D53-A53)</f>
+        <f t="shared" si="0"/>
         <v>-1.8699999999999974</v>
       </c>
       <c r="H53">
-        <f>(E53-B53)</f>
+        <f t="shared" si="1"/>
         <v>5.67</v>
       </c>
       <c r="I53">
-        <f>F53-C53</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9704103711554017</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0345006930129719</v>
       </c>
     </row>
@@ -2650,23 +2650,23 @@
         <v>121.28</v>
       </c>
       <c r="G54">
-        <f>(D54-A54)</f>
+        <f t="shared" si="0"/>
         <v>-2.0200000000000031</v>
       </c>
       <c r="H54">
-        <f>(E54-B54)</f>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
       <c r="I54">
-        <f>F54-C54</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1345959805077896</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2889276048914606</v>
       </c>
     </row>
@@ -2690,23 +2690,23 @@
         <v>121.28</v>
       </c>
       <c r="G55">
-        <f>(D55-A55)</f>
+        <f t="shared" si="0"/>
         <v>-2.3500000000000014</v>
       </c>
       <c r="H55">
-        <f>(E55-B55)</f>
+        <f t="shared" si="1"/>
         <v>2.08</v>
       </c>
       <c r="I55">
-        <f>F55-C55</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1382957158304898</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8669600368196981</v>
       </c>
     </row>
@@ -2730,23 +2730,23 @@
         <v>118.39</v>
       </c>
       <c r="G56">
-        <f>(D56-A56)</f>
+        <f t="shared" si="0"/>
         <v>-1.490000000000002</v>
       </c>
       <c r="H56">
-        <f>(E56-B56)</f>
+        <f t="shared" si="1"/>
         <v>5.7399999999999984</v>
       </c>
       <c r="I56">
-        <f>F56-C56</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9302360829902874</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8803040488487763</v>
       </c>
     </row>
@@ -2770,23 +2770,23 @@
         <v>121.28</v>
       </c>
       <c r="G57">
-        <f>(D57-A57)</f>
+        <f t="shared" si="0"/>
         <v>0.50999999999999801</v>
       </c>
       <c r="H57">
-        <f>(E57-B57)</f>
+        <f t="shared" si="1"/>
         <v>4.1400000000000006</v>
       </c>
       <c r="I57">
-        <f>F57-C57</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.1712947630202306</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5891054740450192</v>
       </c>
     </row>
@@ -2810,23 +2810,23 @@
         <v>124.06</v>
       </c>
       <c r="G58">
-        <f>(D58-A58)</f>
+        <f t="shared" si="0"/>
         <v>0.92000000000000171</v>
       </c>
       <c r="H58">
-        <f>(E58-B58)</f>
+        <f t="shared" si="1"/>
         <v>3.0399999999999991</v>
       </c>
       <c r="I58">
-        <f>F58-C58</f>
+        <f t="shared" si="2"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1761612049768502</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3123405622006916</v>
       </c>
     </row>
@@ -2850,23 +2850,23 @@
         <v>121.3</v>
       </c>
       <c r="G59">
-        <f>(D59-A59)</f>
+        <f t="shared" si="0"/>
         <v>1.1700000000000017</v>
       </c>
       <c r="H59">
-        <f>(E59-B59)</f>
+        <f t="shared" si="1"/>
         <v>4.7000000000000028</v>
       </c>
       <c r="I59">
-        <f>F59-C59</f>
+        <f t="shared" si="2"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.8434388609747137</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.0949897456845692</v>
       </c>
     </row>
@@ -2890,23 +2890,23 @@
         <v>121.28</v>
       </c>
       <c r="G60">
-        <f>(D60-A60)</f>
+        <f t="shared" si="0"/>
         <v>0.82999999999999829</v>
       </c>
       <c r="H60">
-        <f>(E60-B60)</f>
+        <f t="shared" si="1"/>
         <v>5.8799999999999955</v>
       </c>
       <c r="I60">
-        <f>F60-C60</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9382909999426552</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0072605203460174</v>
       </c>
     </row>
@@ -2930,23 +2930,23 @@
         <v>118.39</v>
       </c>
       <c r="G61">
-        <f>(D61-A61)</f>
+        <f t="shared" si="0"/>
         <v>-0.65999999999999659</v>
       </c>
       <c r="H61">
-        <f>(E61-B61)</f>
+        <f t="shared" si="1"/>
         <v>9.11</v>
       </c>
       <c r="I61">
-        <f>F61-C61</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.1338765045297166</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.274741682185006</v>
       </c>
     </row>
@@ -2970,23 +2970,23 @@
         <v>118.39</v>
       </c>
       <c r="G62">
-        <f>(D62-A62)</f>
+        <f t="shared" si="0"/>
         <v>-6.6899999999999977</v>
       </c>
       <c r="H62">
-        <f>(E62-B62)</f>
+        <f t="shared" si="1"/>
         <v>-1.5699999999999932</v>
       </c>
       <c r="I62">
-        <f>F62-C62</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8717537790581487</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.5348361286390197</v>
       </c>
     </row>
@@ -3010,23 +3010,23 @@
         <v>118.39</v>
       </c>
       <c r="G63">
-        <f>(D63-A63)</f>
+        <f t="shared" si="0"/>
         <v>-3.990000000000002</v>
       </c>
       <c r="H63">
-        <f>(E63-B63)</f>
+        <f t="shared" si="1"/>
         <v>-0.47999999999999687</v>
       </c>
       <c r="I63">
-        <f>F63-C63</f>
+        <f t="shared" si="2"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.0187684680757627</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.7357998939993271</v>
       </c>
     </row>
@@ -3050,23 +3050,23 @@
         <v>121.28</v>
       </c>
       <c r="G64">
-        <f>(D64-A64)</f>
+        <f t="shared" si="0"/>
         <v>-3.0300000000000011</v>
       </c>
       <c r="H64">
-        <f>(E64-B64)</f>
+        <f t="shared" si="1"/>
         <v>1.4500000000000028</v>
       </c>
       <c r="I64">
-        <f>F64-C64</f>
+        <f t="shared" si="2"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.359077254247067</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.012165200788977</v>
       </c>
     </row>
@@ -3090,23 +3090,23 @@
         <v>118.42</v>
       </c>
       <c r="G65">
-        <f>(D65-A65)</f>
+        <f t="shared" si="0"/>
         <v>-5.0200000000000031</v>
       </c>
       <c r="H65">
-        <f>(E65-B65)</f>
+        <f t="shared" si="1"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="I65">
-        <f>F65-C65</f>
+        <f t="shared" si="2"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0203585529322536</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.2764968434718806</v>
       </c>
     </row>
@@ -3130,23 +3130,23 @@
         <v>118.39</v>
       </c>
       <c r="G66">
-        <f>(D66-A66)</f>
+        <f t="shared" ref="G66:G129" si="5">(D66-A66)</f>
         <v>-5.5600000000000023</v>
       </c>
       <c r="H66">
-        <f>(E66-B66)</f>
+        <f t="shared" ref="H66:H129" si="6">(E66-B66)</f>
         <v>-0.87999999999999901</v>
       </c>
       <c r="I66">
-        <f>F66-C66</f>
+        <f t="shared" ref="I66:I129" si="7">F66-C66</f>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.62920953598283</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.6821713873892179</v>
       </c>
     </row>
@@ -3170,23 +3170,23 @@
         <v>118.39</v>
       </c>
       <c r="G67">
-        <f>(D67-A67)</f>
+        <f t="shared" si="5"/>
         <v>-3.5900000000000034</v>
       </c>
       <c r="H67">
-        <f>(E67-B67)</f>
+        <f t="shared" si="6"/>
         <v>1.1700000000000017</v>
       </c>
       <c r="I67">
-        <f>F67-C67</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="2" xml:space="preserve"> SQRT(G67*G67+H67*H67)</f>
+        <f t="shared" ref="J67:J130" si="8" xml:space="preserve"> SQRT(G67*G67+H67*H67)</f>
         <v>3.7758442764499742</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="3">SQRT(G67*G67+H67*H67+I67*I67)</f>
+        <f t="shared" ref="K67:K130" si="9">SQRT(G67*G67+H67*H67+I67*I67)</f>
         <v>7.6124306236575983</v>
       </c>
     </row>
@@ -3210,23 +3210,23 @@
         <v>118.39</v>
       </c>
       <c r="G68">
-        <f>(D68-A68)</f>
+        <f t="shared" si="5"/>
         <v>-4.8100000000000023</v>
       </c>
       <c r="H68">
-        <f>(E68-B68)</f>
+        <f t="shared" si="6"/>
         <v>1.9700000000000006</v>
       </c>
       <c r="I68">
-        <f>F68-C68</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.1977879910592764</v>
       </c>
       <c r="K68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.4088703165169587</v>
       </c>
     </row>
@@ -3250,23 +3250,23 @@
         <v>121.28</v>
       </c>
       <c r="G69">
-        <f>(D69-A69)</f>
+        <f t="shared" si="5"/>
         <v>-1.9400000000000013</v>
       </c>
       <c r="H69">
-        <f>(E69-B69)</f>
+        <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
       <c r="I69">
-        <f>F69-C69</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.9695684806576301</v>
       </c>
       <c r="K69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.2092279577138605</v>
       </c>
     </row>
@@ -3290,23 +3290,23 @@
         <v>118.39</v>
       </c>
       <c r="G70">
-        <f>(D70-A70)</f>
+        <f t="shared" si="5"/>
         <v>0.55999999999999872</v>
       </c>
       <c r="H70">
-        <f>(E70-B70)</f>
+        <f t="shared" si="6"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="I70">
-        <f>F70-C70</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.3089391503458896</v>
       </c>
       <c r="K70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.0016640879151</v>
       </c>
     </row>
@@ -3330,23 +3330,23 @@
         <v>121.28</v>
       </c>
       <c r="G71">
-        <f>(D71-A71)</f>
+        <f t="shared" si="5"/>
         <v>-3.0499999999999972</v>
       </c>
       <c r="H71">
-        <f>(E71-B71)</f>
+        <f t="shared" si="6"/>
         <v>3.1499999999999986</v>
       </c>
       <c r="I71">
-        <f>F71-C71</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.3846322536787472</v>
       </c>
       <c r="K71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.7500782603369816</v>
       </c>
     </row>
@@ -3370,23 +3370,23 @@
         <v>115.4</v>
       </c>
       <c r="G72">
-        <f>(D72-A72)</f>
+        <f t="shared" si="5"/>
         <v>-2.7999999999999972</v>
       </c>
       <c r="H72">
-        <f>(E72-B72)</f>
+        <f t="shared" si="6"/>
         <v>3.5700000000000003</v>
       </c>
       <c r="I72">
-        <f>F72-C72</f>
+        <f t="shared" si="7"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.5370585184676626</v>
       </c>
       <c r="K72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.618140138461156</v>
       </c>
     </row>
@@ -3410,23 +3410,23 @@
         <v>121.3</v>
       </c>
       <c r="G73">
-        <f>(D73-A73)</f>
+        <f t="shared" si="5"/>
         <v>-0.66000000000000014</v>
       </c>
       <c r="H73">
-        <f>(E73-B73)</f>
+        <f t="shared" si="6"/>
         <v>5.8999999999999986</v>
       </c>
       <c r="I73">
-        <f>F73-C73</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.936800485109802</v>
       </c>
       <c r="K73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.9953984875773871</v>
       </c>
     </row>
@@ -3450,23 +3450,23 @@
         <v>121.28</v>
       </c>
       <c r="G74">
-        <f>(D74-A74)</f>
+        <f t="shared" si="5"/>
         <v>2.4600000000000009</v>
       </c>
       <c r="H74">
-        <f>(E74-B74)</f>
+        <f t="shared" si="6"/>
         <v>6.1700000000000017</v>
       </c>
       <c r="I74">
-        <f>F74-C74</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.6423263996885931</v>
       </c>
       <c r="K74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.6130742804730342</v>
       </c>
     </row>
@@ -3490,23 +3490,23 @@
         <v>121.3</v>
       </c>
       <c r="G75">
-        <f>(D75-A75)</f>
+        <f t="shared" si="5"/>
         <v>4.5599999999999987</v>
       </c>
       <c r="H75">
-        <f>(E75-B75)</f>
+        <f t="shared" si="6"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="I75">
-        <f>F75-C75</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.2995616306734492</v>
       </c>
       <c r="K75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.1837399763188987</v>
       </c>
     </row>
@@ -3530,23 +3530,23 @@
         <v>112.29</v>
       </c>
       <c r="G76">
-        <f>(D76-A76)</f>
+        <f t="shared" si="5"/>
         <v>-2.9600000000000009</v>
       </c>
       <c r="H76">
-        <f>(E76-B76)</f>
+        <f t="shared" si="6"/>
         <v>11.480000000000004</v>
       </c>
       <c r="I76">
-        <f>F76-C76</f>
+        <f t="shared" si="7"/>
         <v>-12.709999999999994</v>
       </c>
       <c r="J76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11.855462875822273</v>
       </c>
       <c r="K76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17.380911943853807</v>
       </c>
     </row>
@@ -3570,23 +3570,23 @@
         <v>126.75</v>
       </c>
       <c r="G77">
-        <f>(D77-A77)</f>
+        <f t="shared" si="5"/>
         <v>-2.8000000000000007</v>
       </c>
       <c r="H77">
-        <f>(E77-B77)</f>
+        <f t="shared" si="6"/>
         <v>-3.0000000000001137E-2</v>
       </c>
       <c r="I77">
-        <f>F77-C77</f>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="J77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8001607096736438</v>
       </c>
       <c r="K77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.3020296788490566</v>
       </c>
     </row>
@@ -3610,23 +3610,23 @@
         <v>121.28</v>
       </c>
       <c r="G78">
-        <f>(D78-A78)</f>
+        <f t="shared" si="5"/>
         <v>-1.0799999999999983</v>
       </c>
       <c r="H78">
-        <f>(E78-B78)</f>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000085</v>
       </c>
       <c r="I78">
-        <f>F78-C78</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.1002272492535334</v>
       </c>
       <c r="K78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8792911723664139</v>
       </c>
     </row>
@@ -3650,23 +3650,23 @@
         <v>124.06</v>
       </c>
       <c r="G79">
-        <f>(D79-A79)</f>
+        <f t="shared" si="5"/>
         <v>-0.96000000000000085</v>
       </c>
       <c r="H79">
-        <f>(E79-B79)</f>
+        <f t="shared" si="6"/>
         <v>1.1599999999999966</v>
       </c>
       <c r="I79">
-        <f>F79-C79</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.5057224179774948</v>
       </c>
       <c r="K79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.7750492950901362</v>
       </c>
     </row>
@@ -3690,23 +3690,23 @@
         <v>121.28</v>
       </c>
       <c r="G80">
-        <f>(D80-A80)</f>
+        <f t="shared" si="5"/>
         <v>-1.1000000000000014</v>
       </c>
       <c r="H80">
-        <f>(E80-B80)</f>
+        <f t="shared" si="6"/>
         <v>-0.49000000000000199</v>
       </c>
       <c r="I80">
-        <f>F80-C80</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.2042009799032738</v>
       </c>
       <c r="K80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.9100511505605646</v>
       </c>
     </row>
@@ -3730,23 +3730,23 @@
         <v>118.39</v>
       </c>
       <c r="G81">
-        <f>(D81-A81)</f>
+        <f t="shared" si="5"/>
         <v>-2.4299999999999997</v>
       </c>
       <c r="H81">
-        <f>(E81-B81)</f>
+        <f t="shared" si="6"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="I81">
-        <f>F81-C81</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6431988196123268</v>
       </c>
       <c r="K81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.1188903629709026</v>
       </c>
     </row>
@@ -3770,23 +3770,23 @@
         <v>118.5</v>
       </c>
       <c r="G82">
-        <f>(D82-A82)</f>
+        <f t="shared" si="5"/>
         <v>-2.7300000000000004</v>
       </c>
       <c r="H82">
-        <f>(E82-B82)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="I82">
-        <f>F82-C82</f>
+        <f t="shared" si="7"/>
         <v>-6.5</v>
       </c>
       <c r="J82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.741422988157793</v>
       </c>
       <c r="K82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.0544595824201872</v>
       </c>
     </row>
@@ -3810,23 +3810,23 @@
         <v>115.4</v>
       </c>
       <c r="G83">
-        <f>(D83-A83)</f>
+        <f t="shared" si="5"/>
         <v>-2.9800000000000004</v>
       </c>
       <c r="H83">
-        <f>(E83-B83)</f>
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="I83">
-        <f>F83-C83</f>
+        <f t="shared" si="7"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0890585713584491</v>
       </c>
       <c r="K83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.434577135658152</v>
       </c>
     </row>
@@ -3850,23 +3850,23 @@
         <v>119.84</v>
       </c>
       <c r="G84">
-        <f>(D84-A84)</f>
+        <f t="shared" si="5"/>
         <v>-3.1999999999999993</v>
       </c>
       <c r="H84">
-        <f>(E84-B84)</f>
+        <f t="shared" si="6"/>
         <v>0.33</v>
       </c>
       <c r="I84">
-        <f>F84-C84</f>
+        <f t="shared" si="7"/>
         <v>-5.1599999999999966</v>
       </c>
       <c r="J84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.2169706246716019</v>
       </c>
       <c r="K84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.080666081935429</v>
       </c>
     </row>
@@ -3890,23 +3890,23 @@
         <v>109.07</v>
       </c>
       <c r="G85">
-        <f>(D85-A85)</f>
+        <f t="shared" si="5"/>
         <v>-2.6999999999999993</v>
       </c>
       <c r="H85">
-        <f>(E85-B85)</f>
+        <f t="shared" si="6"/>
         <v>3.7799999999999994</v>
       </c>
       <c r="I85">
-        <f>F85-C85</f>
+        <f t="shared" si="7"/>
         <v>-15.930000000000007</v>
       </c>
       <c r="J85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.6452556442030177</v>
       </c>
       <c r="K85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16.593471607834214</v>
       </c>
     </row>
@@ -3930,23 +3930,23 @@
         <v>118.39</v>
       </c>
       <c r="G86">
-        <f>(D86-A86)</f>
+        <f t="shared" si="5"/>
         <v>0.69000000000000128</v>
       </c>
       <c r="H86">
-        <f>(E86-B86)</f>
+        <f t="shared" si="6"/>
         <v>3.6099999999999994</v>
       </c>
       <c r="I86">
-        <f>F86-C86</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.6753503234385696</v>
       </c>
       <c r="K86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.563087993670309</v>
       </c>
     </row>
@@ -3970,23 +3970,23 @@
         <v>124.06</v>
       </c>
       <c r="G87">
-        <f>(D87-A87)</f>
+        <f t="shared" si="5"/>
         <v>2.09</v>
       </c>
       <c r="H87">
-        <f>(E87-B87)</f>
+        <f t="shared" si="6"/>
         <v>2.7199999999999989</v>
       </c>
       <c r="I87">
-        <f>F87-C87</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4302332282222436</v>
       </c>
       <c r="K87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.5566979067668916</v>
       </c>
     </row>
@@ -4010,23 +4010,23 @@
         <v>124.06</v>
       </c>
       <c r="G88">
-        <f>(D88-A88)</f>
+        <f t="shared" si="5"/>
         <v>2.5500000000000007</v>
       </c>
       <c r="H88">
-        <f>(E88-B88)</f>
+        <f t="shared" si="6"/>
         <v>5.0200000000000031</v>
       </c>
       <c r="I88">
-        <f>F88-C88</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.6305328344660275</v>
       </c>
       <c r="K88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.7084586360943383</v>
       </c>
     </row>
@@ -4050,23 +4050,23 @@
         <v>121.65</v>
       </c>
       <c r="G89">
-        <f>(D89-A89)</f>
+        <f t="shared" si="5"/>
         <v>1.0199999999999996</v>
       </c>
       <c r="H89">
-        <f>(E89-B89)</f>
+        <f t="shared" si="6"/>
         <v>4.009999999999998</v>
       </c>
       <c r="I89">
-        <f>F89-C89</f>
+        <f t="shared" si="7"/>
         <v>-3.3499999999999943</v>
       </c>
       <c r="J89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.1376925937048519</v>
       </c>
       <c r="K89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.3238144220098373</v>
       </c>
     </row>
@@ -4090,23 +4090,23 @@
         <v>121.89</v>
       </c>
       <c r="G90">
-        <f>(D90-A90)</f>
+        <f t="shared" si="5"/>
         <v>0.98000000000000043</v>
       </c>
       <c r="H90">
-        <f>(E90-B90)</f>
+        <f t="shared" si="6"/>
         <v>3.4099999999999966</v>
       </c>
       <c r="I90">
-        <f>F90-C90</f>
+        <f t="shared" si="7"/>
         <v>-3.1099999999999994</v>
       </c>
       <c r="J90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.5480276210875217</v>
       </c>
       <c r="K90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.7181140299912183</v>
       </c>
     </row>
@@ -4130,23 +4130,23 @@
         <v>126.48</v>
       </c>
       <c r="G91">
-        <f>(D91-A91)</f>
+        <f t="shared" si="5"/>
         <v>1.129999999999999</v>
       </c>
       <c r="H91">
-        <f>(E91-B91)</f>
+        <f t="shared" si="6"/>
         <v>5.3599999999999994</v>
       </c>
       <c r="I91">
-        <f>F91-C91</f>
+        <f t="shared" si="7"/>
         <v>1.480000000000004</v>
       </c>
       <c r="J91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.4778189090184419</v>
       </c>
       <c r="K91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.6742312254612965</v>
       </c>
     </row>
@@ -4170,23 +4170,23 @@
         <v>126.77</v>
       </c>
       <c r="G92">
-        <f>(D92-A92)</f>
+        <f t="shared" si="5"/>
         <v>-2.6500000000000004</v>
       </c>
       <c r="H92">
-        <f>(E92-B92)</f>
+        <f t="shared" si="6"/>
         <v>-0.48999999999999488</v>
       </c>
       <c r="I92">
-        <f>F92-C92</f>
+        <f t="shared" si="7"/>
         <v>1.769999999999996</v>
       </c>
       <c r="J92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6949211491247747</v>
       </c>
       <c r="K92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.2242053284491643</v>
       </c>
     </row>
@@ -4210,23 +4210,23 @@
         <v>121.3</v>
       </c>
       <c r="G93">
-        <f>(D93-A93)</f>
+        <f t="shared" si="5"/>
         <v>-2.58</v>
       </c>
       <c r="H93">
-        <f>(E93-B93)</f>
+        <f t="shared" si="6"/>
         <v>-0.57000000000000028</v>
       </c>
       <c r="I93">
-        <f>F93-C93</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6422149798984944</v>
       </c>
       <c r="K93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.5465701358276682</v>
       </c>
     </row>
@@ -4250,23 +4250,23 @@
         <v>121.28</v>
       </c>
       <c r="G94">
-        <f>(D94-A94)</f>
+        <f t="shared" si="5"/>
         <v>-3.09</v>
       </c>
       <c r="H94">
-        <f>(E94-B94)</f>
+        <f t="shared" si="6"/>
         <v>-1.5399999999999991</v>
       </c>
       <c r="I94">
-        <f>F94-C94</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4524918537195708</v>
       </c>
       <c r="K94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0752438365067727</v>
       </c>
     </row>
@@ -4290,23 +4290,23 @@
         <v>115.4</v>
       </c>
       <c r="G95">
-        <f>(D95-A95)</f>
+        <f t="shared" si="5"/>
         <v>-3.2699999999999996</v>
       </c>
       <c r="H95">
-        <f>(E95-B95)</f>
+        <f t="shared" si="6"/>
         <v>-0.36999999999999744</v>
       </c>
       <c r="I95">
-        <f>F95-C95</f>
+        <f t="shared" si="7"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.2908661473843019</v>
       </c>
       <c r="K95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.148389034718756</v>
       </c>
     </row>
@@ -4330,23 +4330,23 @@
         <v>121.28</v>
       </c>
       <c r="G96">
-        <f>(D96-A96)</f>
+        <f t="shared" si="5"/>
         <v>-2.0700000000000003</v>
       </c>
       <c r="H96">
-        <f>(E96-B96)</f>
+        <f t="shared" si="6"/>
         <v>-0.82000000000000028</v>
       </c>
       <c r="I96">
-        <f>F96-C96</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.226499494722602</v>
       </c>
       <c r="K96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.3354007888544741</v>
       </c>
     </row>
@@ -4370,23 +4370,23 @@
         <v>118.42</v>
       </c>
       <c r="G97">
-        <f>(D97-A97)</f>
+        <f t="shared" si="5"/>
         <v>-3.16</v>
       </c>
       <c r="H97">
-        <f>(E97-B97)</f>
+        <f t="shared" si="6"/>
         <v>0.67000000000000171</v>
       </c>
       <c r="I97">
-        <f>F97-C97</f>
+        <f t="shared" si="7"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.2302476685232673</v>
       </c>
       <c r="K97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.3301364243784697</v>
       </c>
     </row>
@@ -4410,23 +4410,23 @@
         <v>118.39</v>
       </c>
       <c r="G98">
-        <f>(D98-A98)</f>
+        <f t="shared" si="5"/>
         <v>-2.0999999999999996</v>
       </c>
       <c r="H98">
-        <f>(E98-B98)</f>
+        <f t="shared" si="6"/>
         <v>1.3599999999999994</v>
       </c>
       <c r="I98">
-        <f>F98-C98</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.5019192632856875</v>
       </c>
       <c r="K98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.0676516609125546</v>
       </c>
     </row>
@@ -4450,23 +4450,23 @@
         <v>121.3</v>
       </c>
       <c r="G99">
-        <f>(D99-A99)</f>
+        <f t="shared" si="5"/>
         <v>-1.9800000000000004</v>
       </c>
       <c r="H99">
-        <f>(E99-B99)</f>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="I99">
-        <f>F99-C99</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.9806312125178684</v>
       </c>
       <c r="K99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.1967725694871794</v>
       </c>
     </row>
@@ -4490,23 +4490,23 @@
         <v>121.28</v>
       </c>
       <c r="G100">
-        <f>(D100-A100)</f>
+        <f t="shared" si="5"/>
         <v>-0.39000000000000057</v>
       </c>
       <c r="H100">
-        <f>(E100-B100)</f>
+        <f t="shared" si="6"/>
         <v>2.6300000000000008</v>
       </c>
       <c r="I100">
-        <f>F100-C100</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6587591090582099</v>
       </c>
       <c r="K100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.5724610441205504</v>
       </c>
     </row>
@@ -4530,23 +4530,23 @@
         <v>115.4</v>
       </c>
       <c r="G101">
-        <f>(D101-A101)</f>
+        <f t="shared" si="5"/>
         <v>-2.59</v>
       </c>
       <c r="H101">
-        <f>(E101-B101)</f>
+        <f t="shared" si="6"/>
         <v>3.6099999999999994</v>
       </c>
       <c r="I101">
-        <f>F101-C101</f>
+        <f t="shared" si="7"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.4429944857044328</v>
       </c>
       <c r="K101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.57828908661509</v>
       </c>
     </row>
@@ -4570,23 +4570,23 @@
         <v>118.39</v>
       </c>
       <c r="G102">
-        <f>(D102-A102)</f>
+        <f t="shared" si="5"/>
         <v>-1.9100000000000001</v>
       </c>
       <c r="H102">
-        <f>(E102-B102)</f>
+        <f t="shared" si="6"/>
         <v>4.2299999999999969</v>
       </c>
       <c r="I102">
-        <f>F102-C102</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.6412282857019616</v>
       </c>
       <c r="K102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0767010592196584</v>
       </c>
     </row>
@@ -4610,23 +4610,23 @@
         <v>121.3</v>
       </c>
       <c r="G103">
-        <f>(D103-A103)</f>
+        <f t="shared" si="5"/>
         <v>-2.3599999999999994</v>
       </c>
       <c r="H103">
-        <f>(E103-B103)</f>
+        <f t="shared" si="6"/>
         <v>3.1199999999999974</v>
       </c>
       <c r="I103">
-        <f>F103-C103</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.9120327196995661</v>
       </c>
       <c r="K103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.3846076923021977</v>
       </c>
     </row>
@@ -4650,23 +4650,23 @@
         <v>115.4</v>
       </c>
       <c r="G104">
-        <f>(D104-A104)</f>
+        <f t="shared" si="5"/>
         <v>-1.83</v>
       </c>
       <c r="H104">
-        <f>(E104-B104)</f>
+        <f t="shared" si="6"/>
         <v>6.32</v>
       </c>
       <c r="I104">
-        <f>F104-C104</f>
+        <f t="shared" si="7"/>
         <v>-9.5999999999999943</v>
       </c>
       <c r="J104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.5796124505931202</v>
       </c>
       <c r="K104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11.638354694715224</v>
       </c>
     </row>
@@ -4690,23 +4690,23 @@
         <v>118.39</v>
       </c>
       <c r="G105">
-        <f>(D105-A105)</f>
+        <f t="shared" si="5"/>
         <v>-1.0899999999999999</v>
       </c>
       <c r="H105">
-        <f>(E105-B105)</f>
+        <f t="shared" si="6"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="I105">
-        <f>F105-C105</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.6894020659547682</v>
       </c>
       <c r="K105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.4042649898862329</v>
       </c>
     </row>
@@ -4730,23 +4730,23 @@
         <v>121.3</v>
       </c>
       <c r="G106">
-        <f>(D106-A106)</f>
+        <f t="shared" si="5"/>
         <v>-0.91000000000000014</v>
       </c>
       <c r="H106">
-        <f>(E106-B106)</f>
+        <f t="shared" si="6"/>
         <v>5.6400000000000006</v>
       </c>
       <c r="I106">
-        <f>F106-C106</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.7129414490260624</v>
       </c>
       <c r="K106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.8064454746952929</v>
       </c>
     </row>
@@ -4770,23 +4770,23 @@
         <v>124.09</v>
       </c>
       <c r="G107">
-        <f>(D107-A107)</f>
+        <f t="shared" si="5"/>
         <v>-2.91</v>
       </c>
       <c r="H107">
-        <f>(E107-B107)</f>
+        <f t="shared" si="6"/>
         <v>-2.5999999999999943</v>
       </c>
       <c r="I107">
-        <f>F107-C107</f>
+        <f t="shared" si="7"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.9023198228745901</v>
       </c>
       <c r="K107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.0070188419821502</v>
       </c>
     </row>
@@ -4810,23 +4810,23 @@
         <v>121.28</v>
       </c>
       <c r="G108">
-        <f>(D108-A108)</f>
+        <f t="shared" si="5"/>
         <v>-1.66</v>
       </c>
       <c r="H108">
-        <f>(E108-B108)</f>
+        <f t="shared" si="6"/>
         <v>-2.5499999999999972</v>
       </c>
       <c r="I108">
-        <f>F108-C108</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.0427126055544558</v>
       </c>
       <c r="K108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.8058818129454641</v>
       </c>
     </row>
@@ -4850,23 +4850,23 @@
         <v>121.28</v>
       </c>
       <c r="G109">
-        <f>(D109-A109)</f>
+        <f t="shared" si="5"/>
         <v>-2.21</v>
       </c>
       <c r="H109">
-        <f>(E109-B109)</f>
+        <f t="shared" si="6"/>
         <v>-1.8299999999999983</v>
       </c>
       <c r="I109">
-        <f>F109-C109</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.8693204770467857</v>
       </c>
       <c r="K109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.698020859894088</v>
       </c>
     </row>
@@ -4890,23 +4890,23 @@
         <v>124.06</v>
       </c>
       <c r="G110">
-        <f>(D110-A110)</f>
+        <f t="shared" si="5"/>
         <v>-1.28</v>
       </c>
       <c r="H110">
-        <f>(E110-B110)</f>
+        <f t="shared" si="6"/>
         <v>-0.92999999999999972</v>
       </c>
       <c r="I110">
-        <f>F110-C110</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.5821820375671061</v>
       </c>
       <c r="K110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8403532269648659</v>
       </c>
     </row>
@@ -4930,23 +4930,23 @@
         <v>124.06</v>
       </c>
       <c r="G111">
-        <f>(D111-A111)</f>
+        <f t="shared" si="5"/>
         <v>-1.28</v>
       </c>
       <c r="H111">
-        <f>(E111-B111)</f>
+        <f t="shared" si="6"/>
         <v>-0.21000000000000085</v>
       </c>
       <c r="I111">
-        <f>F111-C111</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.2971121771072849</v>
       </c>
       <c r="K111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.6019051157918174</v>
       </c>
     </row>
@@ -4970,23 +4970,23 @@
         <v>121.38</v>
       </c>
       <c r="G112">
-        <f>(D112-A112)</f>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="H112">
-        <f>(E112-B112)</f>
+        <f t="shared" si="6"/>
         <v>-0.37000000000000099</v>
       </c>
       <c r="I112">
-        <f>F112-C112</f>
+        <f t="shared" si="7"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="J112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.3748332962798272</v>
       </c>
       <c r="K112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.6393543383408047</v>
       </c>
     </row>
@@ -5010,23 +5010,23 @@
         <v>118.42</v>
       </c>
       <c r="G113">
-        <f>(D113-A113)</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="H113">
-        <f>(E113-B113)</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="I113">
-        <f>F113-C113</f>
+        <f t="shared" si="7"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.75006666370396702</v>
       </c>
       <c r="K113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.6226127774466761</v>
       </c>
     </row>
@@ -5050,23 +5050,23 @@
         <v>121.43</v>
       </c>
       <c r="G114">
-        <f>(D114-A114)</f>
+        <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
       <c r="H114">
-        <f>(E114-B114)</f>
+        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
       <c r="I114">
-        <f>F114-C114</f>
+        <f t="shared" si="7"/>
         <v>-3.5699999999999932</v>
       </c>
       <c r="J114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.67416615162732696</v>
       </c>
       <c r="K114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.633097851696256</v>
       </c>
     </row>
@@ -5090,23 +5090,23 @@
         <v>121.28</v>
       </c>
       <c r="G115">
-        <f>(D115-A115)</f>
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
       <c r="H115">
-        <f>(E115-B115)</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="I115">
-        <f>F115-C115</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.78746428490440123</v>
       </c>
       <c r="K115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8024334313699684</v>
       </c>
     </row>
@@ -5130,23 +5130,23 @@
         <v>121.28</v>
       </c>
       <c r="G116">
-        <f>(D116-A116)</f>
+        <f t="shared" si="5"/>
         <v>-0.53</v>
       </c>
       <c r="H116">
-        <f>(E116-B116)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I116">
-        <f>F116-C116</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.0690335908341364</v>
       </c>
       <c r="K116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.2566771077919441</v>
       </c>
     </row>
@@ -5170,23 +5170,23 @@
         <v>121.3</v>
       </c>
       <c r="G117">
-        <f>(D117-A117)</f>
+        <f t="shared" si="5"/>
         <v>-0.1</v>
       </c>
       <c r="H117">
-        <f>(E117-B117)</f>
+        <f t="shared" si="6"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="I117">
-        <f>F117-C117</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.3021728866442648</v>
       </c>
       <c r="K117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.3577517139001865</v>
       </c>
     </row>
@@ -5210,23 +5210,23 @@
         <v>121.28</v>
       </c>
       <c r="G118">
-        <f>(D118-A118)</f>
+        <f t="shared" si="5"/>
         <v>-0.79</v>
       </c>
       <c r="H118">
-        <f>(E118-B118)</f>
+        <f t="shared" si="6"/>
         <v>3.259999999999998</v>
       </c>
       <c r="I118">
-        <f>F118-C118</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.3543553777141724</v>
       </c>
       <c r="K118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0090018965857839</v>
       </c>
     </row>
@@ -5250,23 +5250,23 @@
         <v>121.3</v>
       </c>
       <c r="G119">
-        <f>(D119-A119)</f>
+        <f t="shared" si="5"/>
         <v>-1.08</v>
       </c>
       <c r="H119">
-        <f>(E119-B119)</f>
+        <f t="shared" si="6"/>
         <v>3.6400000000000006</v>
       </c>
       <c r="I119">
-        <f>F119-C119</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.796840792026972</v>
       </c>
       <c r="K119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.3015092190809234</v>
       </c>
     </row>
@@ -5290,23 +5290,23 @@
         <v>124.09</v>
       </c>
       <c r="G120">
-        <f>(D120-A120)</f>
+        <f t="shared" si="5"/>
         <v>-0.46</v>
       </c>
       <c r="H120">
-        <f>(E120-B120)</f>
+        <f t="shared" si="6"/>
         <v>3.8200000000000003</v>
       </c>
       <c r="I120">
-        <f>F120-C120</f>
+        <f t="shared" si="7"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.8475966524572196</v>
       </c>
       <c r="K120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.9537450600664679</v>
       </c>
     </row>
@@ -5330,23 +5330,23 @@
         <v>124.06</v>
       </c>
       <c r="G121">
-        <f>(D121-A121)</f>
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
       <c r="H121">
-        <f>(E121-B121)</f>
+        <f t="shared" si="6"/>
         <v>4.3299999999999983</v>
       </c>
       <c r="I121">
-        <f>F121-C121</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.3770423804208232</v>
       </c>
       <c r="K121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.4768404036775733</v>
       </c>
     </row>
@@ -5370,23 +5370,23 @@
         <v>124.06</v>
       </c>
       <c r="G122">
-        <f>(D122-A122)</f>
+        <f t="shared" si="5"/>
         <v>-1.6500000000000004</v>
       </c>
       <c r="H122">
-        <f>(E122-B122)</f>
+        <f t="shared" si="6"/>
         <v>-2.0100000000000051</v>
       </c>
       <c r="I122">
-        <f>F122-C122</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6004999519323242</v>
       </c>
       <c r="K122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7651763054098408</v>
       </c>
     </row>
@@ -5410,23 +5410,23 @@
         <v>121.28</v>
       </c>
       <c r="G123">
-        <f>(D123-A123)</f>
+        <f t="shared" si="5"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="H123">
-        <f>(E123-B123)</f>
+        <f t="shared" si="6"/>
         <v>-2.259999999999998</v>
       </c>
       <c r="I123">
-        <f>F123-C123</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.3332380932943795</v>
       </c>
       <c r="K123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.3911729640268078</v>
       </c>
     </row>
@@ -5450,23 +5450,23 @@
         <v>124.09</v>
       </c>
       <c r="G124">
-        <f>(D124-A124)</f>
+        <f t="shared" si="5"/>
         <v>-0.96000000000000085</v>
       </c>
       <c r="H124">
-        <f>(E124-B124)</f>
+        <f t="shared" si="6"/>
         <v>-1.009999999999998</v>
       </c>
       <c r="I124">
-        <f>F124-C124</f>
+        <f t="shared" si="7"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3934489585198295</v>
       </c>
       <c r="K124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.6642716124479175</v>
       </c>
     </row>
@@ -5490,23 +5490,23 @@
         <v>124.06</v>
       </c>
       <c r="G125">
-        <f>(D125-A125)</f>
+        <f t="shared" si="5"/>
         <v>-0.77999999999999936</v>
       </c>
       <c r="H125">
-        <f>(E125-B125)</f>
+        <f t="shared" si="6"/>
         <v>-0.63000000000000256</v>
       </c>
       <c r="I125">
-        <f>F125-C125</f>
+        <f t="shared" si="7"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0026464980241054</v>
       </c>
       <c r="K125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.3743725841270256</v>
       </c>
     </row>
@@ -5530,23 +5530,23 @@
         <v>118.39</v>
       </c>
       <c r="G126">
-        <f>(D126-A126)</f>
+        <f t="shared" si="5"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="H126">
-        <f>(E126-B126)</f>
+        <f t="shared" si="6"/>
         <v>-1.0500000000000007</v>
       </c>
       <c r="I126">
-        <f>F126-C126</f>
+        <f t="shared" si="7"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0501904589168582</v>
       </c>
       <c r="K126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.6929066929100385</v>
       </c>
     </row>
@@ -5570,23 +5570,23 @@
         <v>121.28</v>
       </c>
       <c r="G127">
-        <f>(D127-A127)</f>
+        <f t="shared" si="5"/>
         <v>-0.46000000000000085</v>
       </c>
       <c r="H127">
-        <f>(E127-B127)</f>
+        <f t="shared" si="6"/>
         <v>5.9999999999998721E-2</v>
       </c>
       <c r="I127">
-        <f>F127-C127</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.46389654018972876</v>
       </c>
       <c r="K127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.748813145516857</v>
       </c>
     </row>
@@ -5610,23 +5610,23 @@
         <v>121.28</v>
       </c>
       <c r="G128">
-        <f>(D128-A128)</f>
+        <f t="shared" si="5"/>
         <v>-0.73000000000000043</v>
       </c>
       <c r="H128">
-        <f>(E128-B128)</f>
+        <f t="shared" si="6"/>
         <v>0.77999999999999936</v>
       </c>
       <c r="I128">
-        <f>F128-C128</f>
+        <f t="shared" si="7"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0683164325236225</v>
       </c>
       <c r="K128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8703617401994856</v>
       </c>
     </row>
@@ -5650,23 +5650,23 @@
         <v>121.3</v>
       </c>
       <c r="G129">
-        <f>(D129-A129)</f>
+        <f t="shared" si="5"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="H129">
-        <f>(E129-B129)</f>
+        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="I129">
-        <f>F129-C129</f>
+        <f t="shared" si="7"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.0288342918079663</v>
       </c>
       <c r="K129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8403775856027518</v>
       </c>
     </row>
@@ -5690,23 +5690,23 @@
         <v>121.28</v>
       </c>
       <c r="G130">
-        <f>(D130-A130)</f>
+        <f t="shared" ref="G130:G193" si="10">(D130-A130)</f>
         <v>0.72000000000000064</v>
       </c>
       <c r="H130">
-        <f>(E130-B130)</f>
+        <f t="shared" ref="H130:H193" si="11">(E130-B130)</f>
         <v>0.52999999999999936</v>
       </c>
       <c r="I130">
-        <f>F130-C130</f>
+        <f t="shared" ref="I130:I193" si="12">F130-C130</f>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.89403579346690609</v>
       </c>
       <c r="K130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8259247248214376</v>
       </c>
     </row>
@@ -5730,23 +5730,23 @@
         <v>121.38</v>
       </c>
       <c r="G131">
-        <f>(D131-A131)</f>
+        <f t="shared" si="10"/>
         <v>0.44999999999999929</v>
       </c>
       <c r="H131">
-        <f>(E131-B131)</f>
+        <f t="shared" si="11"/>
         <v>1.379999999999999</v>
       </c>
       <c r="I131">
-        <f>F131-C131</f>
+        <f t="shared" si="12"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J191" si="4" xml:space="preserve"> SQRT(G131*G131+H131*H131)</f>
+        <f t="shared" ref="J131:J191" si="13" xml:space="preserve"> SQRT(G131*G131+H131*H131)</f>
         <v>1.4515164484083523</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="5">SQRT(G131*G131+H131*H131+I131*I131)</f>
+        <f t="shared" ref="K131:K194" si="14">SQRT(G131*G131+H131*H131+I131*I131)</f>
         <v>3.9001666631055691</v>
       </c>
     </row>
@@ -5770,23 +5770,23 @@
         <v>121.3</v>
       </c>
       <c r="G132">
-        <f>(D132-A132)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H132">
-        <f>(E132-B132)</f>
+        <f t="shared" si="11"/>
         <v>1.2100000000000009</v>
       </c>
       <c r="I132">
-        <f>F132-C132</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5697452022541754</v>
       </c>
       <c r="K132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.019216341527291</v>
       </c>
     </row>
@@ -5810,23 +5810,23 @@
         <v>121.28</v>
       </c>
       <c r="G133">
-        <f>(D133-A133)</f>
+        <f t="shared" si="10"/>
         <v>1.7100000000000009</v>
       </c>
       <c r="H133">
-        <f>(E133-B133)</f>
+        <f t="shared" si="11"/>
         <v>2.6199999999999974</v>
       </c>
       <c r="I133">
-        <f>F133-C133</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.1286578592105574</v>
       </c>
       <c r="K133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.8607509707863024</v>
       </c>
     </row>
@@ -5850,23 +5850,23 @@
         <v>121.28</v>
       </c>
       <c r="G134">
-        <f>(D134-A134)</f>
+        <f t="shared" si="10"/>
         <v>1.9499999999999993</v>
       </c>
       <c r="H134">
-        <f>(E134-B134)</f>
+        <f t="shared" si="11"/>
         <v>3.3400000000000034</v>
       </c>
       <c r="I134">
-        <f>F134-C134</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.8675702967108458</v>
       </c>
       <c r="K134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.3662370428448281</v>
       </c>
     </row>
@@ -5890,23 +5890,23 @@
         <v>121.28</v>
       </c>
       <c r="G135">
-        <f>(D135-A135)</f>
+        <f t="shared" si="10"/>
         <v>0.38000000000000078</v>
       </c>
       <c r="H135">
-        <f>(E135-B135)</f>
+        <f t="shared" si="11"/>
         <v>4.7999999999999972</v>
       </c>
       <c r="I135">
-        <f>F135-C135</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.8150181723436907</v>
       </c>
       <c r="K135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.0846363901222533</v>
       </c>
     </row>
@@ -5930,23 +5930,23 @@
         <v>121.28</v>
       </c>
       <c r="G136">
-        <f>(D136-A136)</f>
+        <f t="shared" si="10"/>
         <v>2.9999999999999361E-2</v>
       </c>
       <c r="H136">
-        <f>(E136-B136)</f>
+        <f t="shared" si="11"/>
         <v>5.8400000000000034</v>
       </c>
       <c r="I136">
-        <f>F136-C136</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.840077054286188</v>
       </c>
       <c r="K136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.9242255884683619</v>
       </c>
     </row>
@@ -5970,23 +5970,23 @@
         <v>126.75</v>
       </c>
       <c r="G137">
-        <f>(D137-A137)</f>
+        <f t="shared" si="10"/>
         <v>-3.66</v>
       </c>
       <c r="H137">
-        <f>(E137-B137)</f>
+        <f t="shared" si="11"/>
         <v>-1.230000000000004</v>
       </c>
       <c r="I137">
-        <f>F137-C137</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.8611526776339744</v>
       </c>
       <c r="K137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.2392216266668594</v>
       </c>
     </row>
@@ -6010,23 +6010,23 @@
         <v>124.06</v>
       </c>
       <c r="G138">
-        <f>(D138-A138)</f>
+        <f t="shared" si="10"/>
         <v>-2.9699999999999989</v>
       </c>
       <c r="H138">
-        <f>(E138-B138)</f>
+        <f t="shared" si="11"/>
         <v>-2.3200000000000003</v>
       </c>
       <c r="I138">
-        <f>F138-C138</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.7687265753832548</v>
       </c>
       <c r="K138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.8841858863859735</v>
       </c>
     </row>
@@ -6050,23 +6050,23 @@
         <v>124.06</v>
       </c>
       <c r="G139">
-        <f>(D139-A139)</f>
+        <f t="shared" si="10"/>
         <v>-2.629999999999999</v>
       </c>
       <c r="H139">
-        <f>(E139-B139)</f>
+        <f t="shared" si="11"/>
         <v>-0.75999999999999801</v>
       </c>
       <c r="I139">
-        <f>F139-C139</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.737608445340566</v>
       </c>
       <c r="K139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.8944947745677463</v>
       </c>
     </row>
@@ -6090,23 +6090,23 @@
         <v>121.28</v>
       </c>
       <c r="G140">
-        <f>(D140-A140)</f>
+        <f t="shared" si="10"/>
         <v>-2.4600000000000009</v>
       </c>
       <c r="H140">
-        <f>(E140-B140)</f>
+        <f t="shared" si="11"/>
         <v>-2.1599999999999966</v>
       </c>
       <c r="I140">
-        <f>F140-C140</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.2737134877688958</v>
       </c>
       <c r="K140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.9553607335894307</v>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>121.3</v>
       </c>
       <c r="G141">
-        <f>(D141-A141)</f>
+        <f t="shared" si="10"/>
         <v>-1.3099999999999987</v>
       </c>
       <c r="H141">
-        <f>(E141-B141)</f>
+        <f t="shared" si="11"/>
         <v>-0.80000000000000071</v>
       </c>
       <c r="I141">
-        <f>F141-C141</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5349592828475933</v>
       </c>
       <c r="K141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.0057583551682221</v>
       </c>
     </row>
@@ -6170,23 +6170,23 @@
         <v>124.06</v>
       </c>
       <c r="G142">
-        <f>(D142-A142)</f>
+        <f t="shared" si="10"/>
         <v>-1.0500000000000007</v>
       </c>
       <c r="H142">
-        <f>(E142-B142)</f>
+        <f t="shared" si="11"/>
         <v>-0.12999999999999901</v>
       </c>
       <c r="I142">
-        <f>F142-C142</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.0580170130957258</v>
       </c>
       <c r="K142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.4152738250953407</v>
       </c>
     </row>
@@ -6210,23 +6210,23 @@
         <v>121.28</v>
       </c>
       <c r="G143">
-        <f>(D143-A143)</f>
+        <f t="shared" si="10"/>
         <v>0.14999999999999858</v>
       </c>
       <c r="H143">
-        <f>(E143-B143)</f>
+        <f t="shared" si="11"/>
         <v>0.15000000000000036</v>
       </c>
       <c r="I143">
-        <f>F143-C143</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.21213203435596351</v>
       </c>
       <c r="K143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.7260434780071998</v>
       </c>
     </row>
@@ -6250,23 +6250,23 @@
         <v>121.64</v>
       </c>
       <c r="G144">
-        <f>(D144-A144)</f>
+        <f t="shared" si="10"/>
         <v>1.370000000000001</v>
       </c>
       <c r="H144">
-        <f>(E144-B144)</f>
+        <f t="shared" si="11"/>
         <v>0.18</v>
       </c>
       <c r="I144">
-        <f>F144-C144</f>
+        <f t="shared" si="12"/>
         <v>-3.3599999999999994</v>
       </c>
       <c r="J144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.3817742217887852</v>
       </c>
       <c r="K144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.633029039245351</v>
       </c>
     </row>
@@ -6290,23 +6290,23 @@
         <v>121.28</v>
       </c>
       <c r="G145">
-        <f>(D145-A145)</f>
+        <f t="shared" si="10"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="H145">
-        <f>(E145-B145)</f>
+        <f t="shared" si="11"/>
         <v>-0.60999999999999943</v>
       </c>
       <c r="I145">
-        <f>F145-C145</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5271214751944244</v>
       </c>
       <c r="K145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.021256022687437</v>
       </c>
     </row>
@@ -6330,23 +6330,23 @@
         <v>118.39</v>
       </c>
       <c r="G146">
-        <f>(D146-A146)</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="H146">
-        <f>(E146-B146)</f>
+        <f t="shared" si="11"/>
         <v>0.42000000000000171</v>
       </c>
       <c r="I146">
-        <f>F146-C146</f>
+        <f t="shared" si="12"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.51613951602255936</v>
       </c>
       <c r="K146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.630120662552077</v>
       </c>
     </row>
@@ -6370,23 +6370,23 @@
         <v>118.39</v>
       </c>
       <c r="G147">
-        <f>(D147-A147)</f>
+        <f t="shared" si="10"/>
         <v>0.39000000000000057</v>
       </c>
       <c r="H147">
-        <f>(E147-B147)</f>
+        <f t="shared" si="11"/>
         <v>2.009999999999998</v>
       </c>
       <c r="I147">
-        <f>F147-C147</f>
+        <f t="shared" si="12"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.0474862636901845</v>
       </c>
       <c r="K147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.9198482642323871</v>
       </c>
     </row>
@@ -6410,23 +6410,23 @@
         <v>121.3</v>
       </c>
       <c r="G148">
-        <f>(D148-A148)</f>
+        <f t="shared" si="10"/>
         <v>1.0599999999999987</v>
       </c>
       <c r="H148">
-        <f>(E148-B148)</f>
+        <f t="shared" si="11"/>
         <v>1.6599999999999966</v>
       </c>
       <c r="I148">
-        <f>F148-C148</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.969568480657625</v>
       </c>
       <c r="K148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.1915629543166837</v>
       </c>
     </row>
@@ -6450,23 +6450,23 @@
         <v>121.3</v>
       </c>
       <c r="G149">
-        <f>(D149-A149)</f>
+        <f t="shared" si="10"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="H149">
-        <f>(E149-B149)</f>
+        <f t="shared" si="11"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="I149">
-        <f>F149-C149</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.5018423722377934</v>
       </c>
       <c r="K149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.0943988850501327</v>
       </c>
     </row>
@@ -6490,23 +6490,23 @@
         <v>118.42</v>
       </c>
       <c r="G150">
-        <f>(D150-A150)</f>
+        <f t="shared" si="10"/>
         <v>3.879999999999999</v>
       </c>
       <c r="H150">
-        <f>(E150-B150)</f>
+        <f t="shared" si="11"/>
         <v>3.7800000000000011</v>
       </c>
       <c r="I150">
-        <f>F150-C150</f>
+        <f t="shared" si="12"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.4168994821761274</v>
       </c>
       <c r="K150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.5228633686103397</v>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>121.3</v>
       </c>
       <c r="G151">
-        <f>(D151-A151)</f>
+        <f t="shared" si="10"/>
         <v>2.6099999999999994</v>
       </c>
       <c r="H151">
-        <f>(E151-B151)</f>
+        <f t="shared" si="11"/>
         <v>4.4500000000000028</v>
       </c>
       <c r="I151">
-        <f>F151-C151</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.1589339984147911</v>
       </c>
       <c r="K151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.3485903947254343</v>
       </c>
     </row>
@@ -6570,23 +6570,23 @@
         <v>126.75</v>
       </c>
       <c r="G152">
-        <f>(D152-A152)</f>
+        <f t="shared" si="10"/>
         <v>-2.7300000000000004</v>
       </c>
       <c r="H152">
-        <f>(E152-B152)</f>
+        <f t="shared" si="11"/>
         <v>-1.8799999999999955</v>
       </c>
       <c r="I152">
-        <f>F152-C152</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.3147096403757579</v>
       </c>
       <c r="K152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.7483062841768926</v>
       </c>
     </row>
@@ -6610,23 +6610,23 @@
         <v>126.75</v>
       </c>
       <c r="G153">
-        <f>(D153-A153)</f>
+        <f t="shared" si="10"/>
         <v>0.46000000000000085</v>
       </c>
       <c r="H153">
-        <f>(E153-B153)</f>
+        <f t="shared" si="11"/>
         <v>-3.1199999999999974</v>
       </c>
       <c r="I153">
-        <f>F153-C153</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.1537279527568618</v>
       </c>
       <c r="K153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.6067298207656178</v>
       </c>
     </row>
@@ -6650,23 +6650,23 @@
         <v>124.06</v>
       </c>
       <c r="G154">
-        <f>(D154-A154)</f>
+        <f t="shared" si="10"/>
         <v>-1.0700000000000003</v>
       </c>
       <c r="H154">
-        <f>(E154-B154)</f>
+        <f t="shared" si="11"/>
         <v>-2.6799999999999997</v>
       </c>
       <c r="I154">
-        <f>F154-C154</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.8857061527466721</v>
       </c>
       <c r="K154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.0349464575178251</v>
       </c>
     </row>
@@ -6690,23 +6690,23 @@
         <v>126.75</v>
       </c>
       <c r="G155">
-        <f>(D155-A155)</f>
+        <f t="shared" si="10"/>
         <v>-1.129999999999999</v>
       </c>
       <c r="H155">
-        <f>(E155-B155)</f>
+        <f t="shared" si="11"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="I155">
-        <f>F155-C155</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1641735265844171</v>
       </c>
       <c r="K155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.1018563223969422</v>
       </c>
     </row>
@@ -6730,23 +6730,23 @@
         <v>121.28</v>
       </c>
       <c r="G156">
-        <f>(D156-A156)</f>
+        <f t="shared" si="10"/>
         <v>-0.48000000000000043</v>
       </c>
       <c r="H156">
-        <f>(E156-B156)</f>
+        <f t="shared" si="11"/>
         <v>-0.82999999999999829</v>
       </c>
       <c r="I156">
-        <f>F156-C156</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.95880133500115527</v>
       </c>
       <c r="K156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.8415751977541697</v>
       </c>
     </row>
@@ -6770,23 +6770,23 @@
         <v>121.28</v>
       </c>
       <c r="G157">
-        <f>(D157-A157)</f>
+        <f t="shared" si="10"/>
         <v>0.10999999999999943</v>
       </c>
       <c r="H157">
-        <f>(E157-B157)</f>
+        <f t="shared" si="11"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="I157">
-        <f>F157-C157</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.33837848631377271</v>
       </c>
       <c r="K157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.7353580818979042</v>
       </c>
     </row>
@@ -6810,23 +6810,23 @@
         <v>124.06</v>
       </c>
       <c r="G158">
-        <f>(D158-A158)</f>
+        <f t="shared" si="10"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="H158">
-        <f>(E158-B158)</f>
+        <f t="shared" si="11"/>
         <v>1.42</v>
       </c>
       <c r="I158">
-        <f>F158-C158</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.0800961516237653</v>
       </c>
       <c r="K158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.2826300620118003</v>
       </c>
     </row>
@@ -6850,23 +6850,23 @@
         <v>122.37</v>
       </c>
       <c r="G159">
-        <f>(D159-A159)</f>
+        <f t="shared" si="10"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="H159">
-        <f>(E159-B159)</f>
+        <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="I159">
-        <f>F159-C159</f>
+        <f t="shared" si="12"/>
         <v>-2.6299999999999955</v>
       </c>
       <c r="J159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.2776932339180633</v>
       </c>
       <c r="K159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.9239357038074512</v>
       </c>
     </row>
@@ -6890,23 +6890,23 @@
         <v>121.38</v>
       </c>
       <c r="G160">
-        <f>(D160-A160)</f>
+        <f t="shared" si="10"/>
         <v>-3.0000000000001137E-2</v>
       </c>
       <c r="H160">
-        <f>(E160-B160)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I160">
-        <f>F160-C160</f>
+        <f t="shared" si="12"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="J160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="K160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.6201243072579752</v>
       </c>
     </row>
@@ -6930,23 +6930,23 @@
         <v>112.32</v>
       </c>
       <c r="G161">
-        <f>(D161-A161)</f>
+        <f t="shared" si="10"/>
         <v>1.129999999999999</v>
       </c>
       <c r="H161">
-        <f>(E161-B161)</f>
+        <f t="shared" si="11"/>
         <v>3.0300000000000011</v>
       </c>
       <c r="I161">
-        <f>F161-C161</f>
+        <f t="shared" si="12"/>
         <v>-12.680000000000007</v>
       </c>
       <c r="J161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.2338521920458896</v>
       </c>
       <c r="K161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>13.085877884192568</v>
       </c>
     </row>
@@ -6970,23 +6970,23 @@
         <v>121.3</v>
       </c>
       <c r="G162">
-        <f>(D162-A162)</f>
+        <f t="shared" si="10"/>
         <v>3.0499999999999972</v>
       </c>
       <c r="H162">
-        <f>(E162-B162)</f>
+        <f t="shared" si="11"/>
         <v>2.3299999999999983</v>
       </c>
       <c r="I162">
-        <f>F162-C162</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.838150596315884</v>
       </c>
       <c r="K162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.3311724789205606</v>
       </c>
     </row>
@@ -7010,23 +7010,23 @@
         <v>121.28</v>
       </c>
       <c r="G163">
-        <f>(D163-A163)</f>
+        <f t="shared" si="10"/>
         <v>1.5500000000000007</v>
       </c>
       <c r="H163">
-        <f>(E163-B163)</f>
+        <f t="shared" si="11"/>
         <v>2.8500000000000014</v>
       </c>
       <c r="I163">
-        <f>F163-C163</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.2442256395016682</v>
       </c>
       <c r="K163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.93592949706537</v>
       </c>
     </row>
@@ -7050,23 +7050,23 @@
         <v>121.28</v>
       </c>
       <c r="G164">
-        <f>(D164-A164)</f>
+        <f t="shared" si="10"/>
         <v>0.76000000000000156</v>
       </c>
       <c r="H164">
-        <f>(E164-B164)</f>
+        <f t="shared" si="11"/>
         <v>3.3900000000000006</v>
       </c>
       <c r="I164">
-        <f>F164-C164</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.4741473774150697</v>
       </c>
       <c r="K164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.09</v>
       </c>
     </row>
@@ -7090,23 +7090,23 @@
         <v>121.28</v>
       </c>
       <c r="G165">
-        <f>(D165-A165)</f>
+        <f t="shared" si="10"/>
         <v>2.0700000000000003</v>
       </c>
       <c r="H165">
-        <f>(E165-B165)</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999986</v>
       </c>
       <c r="I165">
-        <f>F165-C165</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.4153029341144858</v>
       </c>
       <c r="K165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.7734998051441879</v>
       </c>
     </row>
@@ -7130,23 +7130,23 @@
         <v>121.3</v>
       </c>
       <c r="G166">
-        <f>(D166-A166)</f>
+        <f t="shared" si="10"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="H166">
-        <f>(E166-B166)</f>
+        <f t="shared" si="11"/>
         <v>5.5699999999999932</v>
       </c>
       <c r="I166">
-        <f>F166-C166</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.5735895076691753</v>
       </c>
       <c r="K166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.6899103133001674</v>
       </c>
     </row>
@@ -7170,23 +7170,23 @@
         <v>124.06</v>
       </c>
       <c r="G167">
-        <f>(D167-A167)</f>
+        <f t="shared" si="10"/>
         <v>-1.7199999999999989</v>
       </c>
       <c r="H167">
-        <f>(E167-B167)</f>
+        <f t="shared" si="11"/>
         <v>-4.4300000000000068</v>
       </c>
       <c r="I167">
-        <f>F167-C167</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.752188969306677</v>
       </c>
       <c r="K167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.8442646500784878</v>
       </c>
     </row>
@@ -7210,23 +7210,23 @@
         <v>126.75</v>
       </c>
       <c r="G168">
-        <f>(D168-A168)</f>
+        <f t="shared" si="10"/>
         <v>-0.57999999999999829</v>
       </c>
       <c r="H168">
-        <f>(E168-B168)</f>
+        <f t="shared" si="11"/>
         <v>-3.009999999999998</v>
       </c>
       <c r="I168">
-        <f>F168-C168</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.0653711031455857</v>
       </c>
       <c r="K168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.5297308679274666</v>
       </c>
     </row>
@@ -7250,23 +7250,23 @@
         <v>118.39</v>
       </c>
       <c r="G169">
-        <f>(D169-A169)</f>
+        <f t="shared" si="10"/>
         <v>2.0799999999999983</v>
       </c>
       <c r="H169">
-        <f>(E169-B169)</f>
+        <f t="shared" si="11"/>
         <v>-3.75</v>
       </c>
       <c r="I169">
-        <f>F169-C169</f>
+        <f t="shared" si="12"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.2882280722927968</v>
       </c>
       <c r="K169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.8791497003166517</v>
       </c>
     </row>
@@ -7290,23 +7290,23 @@
         <v>126.75</v>
       </c>
       <c r="G170">
-        <f>(D170-A170)</f>
+        <f t="shared" si="10"/>
         <v>1.2000000000000028</v>
       </c>
       <c r="H170">
-        <f>(E170-B170)</f>
+        <f t="shared" si="11"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="I170">
-        <f>F170-C170</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.4422205101855965</v>
       </c>
       <c r="K170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.2677080940897136</v>
       </c>
     </row>
@@ -7330,23 +7330,23 @@
         <v>121.28</v>
       </c>
       <c r="G171">
-        <f>(D171-A171)</f>
+        <f t="shared" si="10"/>
         <v>0.64999999999999858</v>
       </c>
       <c r="H171">
-        <f>(E171-B171)</f>
+        <f t="shared" si="11"/>
         <v>-1.1600000000000001</v>
       </c>
       <c r="I171">
-        <f>F171-C171</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.3296992141082127</v>
       </c>
       <c r="K171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.9505062966662878</v>
       </c>
     </row>
@@ -7370,23 +7370,23 @@
         <v>121.28</v>
       </c>
       <c r="G172">
-        <f>(D172-A172)</f>
+        <f t="shared" si="10"/>
         <v>1.5900000000000034</v>
       </c>
       <c r="H172">
-        <f>(E172-B172)</f>
+        <f t="shared" si="11"/>
         <v>-0.80000000000000071</v>
       </c>
       <c r="I172">
-        <f>F172-C172</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.7799157283422189</v>
       </c>
       <c r="K172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.1238937910668847</v>
       </c>
     </row>
@@ -7410,23 +7410,23 @@
         <v>118.42</v>
       </c>
       <c r="G173">
-        <f>(D173-A173)</f>
+        <f t="shared" si="10"/>
         <v>2.5900000000000034</v>
       </c>
       <c r="H173">
-        <f>(E173-B173)</f>
+        <f t="shared" si="11"/>
         <v>1.7200000000000006</v>
       </c>
       <c r="I173">
-        <f>F173-C173</f>
+        <f t="shared" si="12"/>
         <v>-6.5799999999999983</v>
       </c>
       <c r="J173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.1090995481007071</v>
       </c>
       <c r="K173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.2775614047564039</v>
       </c>
     </row>
@@ -7450,23 +7450,23 @@
         <v>121.28</v>
       </c>
       <c r="G174">
-        <f>(D174-A174)</f>
+        <f t="shared" si="10"/>
         <v>2.759999999999998</v>
       </c>
       <c r="H174">
-        <f>(E174-B174)</f>
+        <f t="shared" si="11"/>
         <v>-0.13</v>
       </c>
       <c r="I174">
-        <f>F174-C174</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.7630598980116208</v>
       </c>
       <c r="K174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.6338860581589598</v>
       </c>
     </row>
@@ -7490,23 +7490,23 @@
         <v>124.09</v>
       </c>
       <c r="G175">
-        <f>(D175-A175)</f>
+        <f t="shared" si="10"/>
         <v>1.990000000000002</v>
       </c>
       <c r="H175">
-        <f>(E175-B175)</f>
+        <f t="shared" si="11"/>
         <v>0.26999999999999957</v>
       </c>
       <c r="I175">
-        <f>F175-C175</f>
+        <f t="shared" si="12"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.0082330542046178</v>
       </c>
       <c r="K175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.2047902394558991</v>
       </c>
     </row>
@@ -7530,23 +7530,23 @@
         <v>121.28</v>
       </c>
       <c r="G176">
-        <f>(D176-A176)</f>
+        <f t="shared" si="10"/>
         <v>2.5499999999999972</v>
       </c>
       <c r="H176">
-        <f>(E176-B176)</f>
+        <f t="shared" si="11"/>
         <v>2.1099999999999994</v>
       </c>
       <c r="I176">
-        <f>F176-C176</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.3097734061412698</v>
       </c>
       <c r="K176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.9792569726817648</v>
       </c>
     </row>
@@ -7570,23 +7570,23 @@
         <v>121.28</v>
       </c>
       <c r="G177">
-        <f>(D177-A177)</f>
+        <f t="shared" si="10"/>
         <v>2.8599999999999994</v>
       </c>
       <c r="H177">
-        <f>(E177-B177)</f>
+        <f t="shared" si="11"/>
         <v>3.3599999999999994</v>
       </c>
       <c r="I177">
-        <f>F177-C177</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.4123916417290063</v>
       </c>
       <c r="K177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.7712736895766765</v>
       </c>
     </row>
@@ -7610,23 +7610,23 @@
         <v>124.06</v>
       </c>
       <c r="G178">
-        <f>(D178-A178)</f>
+        <f t="shared" si="10"/>
         <v>2.009999999999998</v>
       </c>
       <c r="H178">
-        <f>(E178-B178)</f>
+        <f t="shared" si="11"/>
         <v>1.8699999999999974</v>
       </c>
       <c r="I178">
-        <f>F178-C178</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.7453597214208529</v>
       </c>
       <c r="K178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.9018270106951545</v>
       </c>
     </row>
@@ -7650,23 +7650,23 @@
         <v>121.38</v>
       </c>
       <c r="G179">
-        <f>(D179-A179)</f>
+        <f t="shared" si="10"/>
         <v>4.1099999999999994</v>
       </c>
       <c r="H179">
-        <f>(E179-B179)</f>
+        <f t="shared" si="11"/>
         <v>5.5399999999999991</v>
       </c>
       <c r="I179">
-        <f>F179-C179</f>
+        <f t="shared" si="12"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="J179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6.8980939396328882</v>
       </c>
       <c r="K179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.7902567351788878</v>
       </c>
     </row>
@@ -7690,23 +7690,23 @@
         <v>121.28</v>
       </c>
       <c r="G180">
-        <f>(D180-A180)</f>
+        <f t="shared" si="10"/>
         <v>3.5300000000000011</v>
       </c>
       <c r="H180">
-        <f>(E180-B180)</f>
+        <f t="shared" si="11"/>
         <v>3.9399999999999977</v>
       </c>
       <c r="I180">
-        <f>F180-C180</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.2900378070482628</v>
       </c>
       <c r="K180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.4670627026494794</v>
       </c>
     </row>
@@ -7730,23 +7730,23 @@
         <v>121.28</v>
       </c>
       <c r="G181">
-        <f>(D181-A181)</f>
+        <f t="shared" si="10"/>
         <v>3.3299999999999983</v>
       </c>
       <c r="H181">
-        <f>(E181-B181)</f>
+        <f t="shared" si="11"/>
         <v>4.0100000000000051</v>
       </c>
       <c r="I181">
-        <f>F181-C181</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.2123890875490124</v>
       </c>
       <c r="K181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.4037020542807905</v>
       </c>
     </row>
@@ -7770,23 +7770,23 @@
         <v>126.75</v>
       </c>
       <c r="G182">
-        <f>(D182-A182)</f>
+        <f t="shared" si="10"/>
         <v>-2.0900000000000034</v>
       </c>
       <c r="H182">
-        <f>(E182-B182)</f>
+        <f t="shared" si="11"/>
         <v>-2.1299999999999955</v>
       </c>
       <c r="I182">
-        <f>F182-C182</f>
+        <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
       <c r="J182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.9841246622753537</v>
       </c>
       <c r="K182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.4594074637139802</v>
       </c>
     </row>
@@ -7810,23 +7810,23 @@
         <v>124.06</v>
       </c>
       <c r="G183">
-        <f>(D183-A183)</f>
+        <f t="shared" si="10"/>
         <v>1.490000000000002</v>
       </c>
       <c r="H183">
-        <f>(E183-B183)</f>
+        <f t="shared" si="11"/>
         <v>-3.8299999999999983</v>
       </c>
       <c r="I183">
-        <f>F183-C183</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.1096228537421764</v>
       </c>
       <c r="K183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.2157561599314528</v>
       </c>
     </row>
@@ -7850,23 +7850,23 @@
         <v>124.06</v>
       </c>
       <c r="G184">
-        <f>(D184-A184)</f>
+        <f t="shared" si="10"/>
         <v>1.1199999999999974</v>
       </c>
       <c r="H184">
-        <f>(E184-B184)</f>
+        <f t="shared" si="11"/>
         <v>-1.5799999999999983</v>
       </c>
       <c r="I184">
-        <f>F184-C184</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.9366982212001922</v>
       </c>
       <c r="K184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.152765663048346</v>
       </c>
     </row>
@@ -7890,23 +7890,23 @@
         <v>124.06</v>
       </c>
       <c r="G185">
-        <f>(D185-A185)</f>
+        <f t="shared" si="10"/>
         <v>-9.0000000000003411E-2</v>
       </c>
       <c r="H185">
-        <f>(E185-B185)</f>
+        <f t="shared" si="11"/>
         <v>-1.8900000000000006</v>
       </c>
       <c r="I185">
-        <f>F185-C185</f>
+        <f t="shared" si="12"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.8921416437465781</v>
       </c>
       <c r="K185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.1127706927160834</v>
       </c>
     </row>
@@ -7930,23 +7930,23 @@
         <v>124.09</v>
       </c>
       <c r="G186">
-        <f>(D186-A186)</f>
+        <f t="shared" si="10"/>
         <v>0.52000000000000313</v>
       </c>
       <c r="H186">
-        <f>(E186-B186)</f>
+        <f t="shared" si="11"/>
         <v>-1.7100000000000009</v>
       </c>
       <c r="I186">
-        <f>F186-C186</f>
+        <f t="shared" si="12"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.7873164241398347</v>
       </c>
       <c r="K186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.0056420418409662</v>
       </c>
     </row>
@@ -7970,23 +7970,23 @@
         <v>124.09</v>
       </c>
       <c r="G187">
-        <f>(D187-A187)</f>
+        <f t="shared" si="10"/>
         <v>0.47999999999999687</v>
       </c>
       <c r="H187">
-        <f>(E187-B187)</f>
+        <f t="shared" si="11"/>
         <v>-1.0199999999999996</v>
       </c>
       <c r="I187">
-        <f>F187-C187</f>
+        <f t="shared" si="12"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1272976536833546</v>
       </c>
       <c r="K187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.4487580888471303</v>
       </c>
     </row>
@@ -8010,23 +8010,23 @@
         <v>121.28</v>
       </c>
       <c r="G188">
-        <f>(D188-A188)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="H188">
-        <f>(E188-B188)</f>
+        <f t="shared" si="11"/>
         <v>-0.75999999999999979</v>
       </c>
       <c r="I188">
-        <f>F188-C188</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.3376788341600516</v>
       </c>
       <c r="K188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.9978495375511249</v>
       </c>
     </row>
@@ -8050,23 +8050,23 @@
         <v>121.18</v>
       </c>
       <c r="G189">
-        <f>(D189-A189)</f>
+        <f t="shared" si="10"/>
         <v>3.8200000000000003</v>
       </c>
       <c r="H189">
-        <f>(E189-B189)</f>
+        <f t="shared" si="11"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I189">
-        <f>F189-C189</f>
+        <f t="shared" si="12"/>
         <v>-3.8199999999999932</v>
       </c>
       <c r="J189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.8593911436909321</v>
       </c>
       <c r="K189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.4302209899782117</v>
       </c>
     </row>
@@ -8090,23 +8090,23 @@
         <v>121.3</v>
       </c>
       <c r="G190">
-        <f>(D190-A190)</f>
+        <f t="shared" si="10"/>
         <v>4.2700000000000031</v>
       </c>
       <c r="H190">
-        <f>(E190-B190)</f>
+        <f t="shared" si="11"/>
         <v>-0.71000000000000085</v>
       </c>
       <c r="I190">
-        <f>F190-C190</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.3286256479395426</v>
       </c>
       <c r="K190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.6944710026480996</v>
       </c>
     </row>
@@ -8130,23 +8130,23 @@
         <v>121.28</v>
       </c>
       <c r="G191">
-        <f>(D191-A191)</f>
+        <f t="shared" si="10"/>
         <v>3.6599999999999966</v>
       </c>
       <c r="H191">
-        <f>(E191-B191)</f>
+        <f t="shared" si="11"/>
         <v>1.2399999999999984</v>
       </c>
       <c r="I191">
-        <f>F191-C191</f>
+        <f t="shared" si="12"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.8643498806396881</v>
       </c>
       <c r="K191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.3639164795883953</v>
       </c>
     </row>
@@ -8170,23 +8170,23 @@
         <v>118.39</v>
       </c>
       <c r="G192">
-        <f>(D192-A192)</f>
+        <f t="shared" si="10"/>
         <v>4.6599999999999966</v>
       </c>
       <c r="H192">
-        <f>(E192-B192)</f>
+        <f t="shared" si="11"/>
         <v>0.28999999999999915</v>
       </c>
       <c r="I192">
-        <f>F192-C192</f>
+        <f t="shared" si="12"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J192">
-        <f t="shared" ref="J192:J226" si="6" xml:space="preserve"> SQRT(G192*G192+H192*H192)</f>
+        <f t="shared" ref="J192:J226" si="15" xml:space="preserve"> SQRT(G192*G192+H192*H192)</f>
         <v>4.6690148853907036</v>
       </c>
       <c r="K192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8.0927004145711425</v>
       </c>
     </row>
@@ -8210,23 +8210,23 @@
         <v>121.3</v>
       </c>
       <c r="G193">
-        <f>(D193-A193)</f>
+        <f t="shared" si="10"/>
         <v>4.3999999999999986</v>
       </c>
       <c r="H193">
-        <f>(E193-B193)</f>
+        <f t="shared" si="11"/>
         <v>3.6400000000000006</v>
       </c>
       <c r="I193">
-        <f>F193-C193</f>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.7104815908993167</v>
       </c>
       <c r="K193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.8043809417168886</v>
       </c>
     </row>
@@ -8250,23 +8250,23 @@
         <v>121.28</v>
       </c>
       <c r="G194">
-        <f>(D194-A194)</f>
+        <f t="shared" ref="G194:G226" si="16">(D194-A194)</f>
         <v>5.7299999999999969</v>
       </c>
       <c r="H194">
-        <f>(E194-B194)</f>
+        <f t="shared" ref="H194:H226" si="17">(E194-B194)</f>
         <v>2.6899999999999977</v>
       </c>
       <c r="I194">
-        <f>F194-C194</f>
+        <f t="shared" ref="I194:I226" si="18">F194-C194</f>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6.3300078988892228</v>
       </c>
       <c r="K194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.3421658929773539</v>
       </c>
     </row>
@@ -8290,23 +8290,23 @@
         <v>118.39</v>
       </c>
       <c r="G195">
-        <f>(D195-A195)</f>
+        <f t="shared" si="16"/>
         <v>5.43</v>
       </c>
       <c r="H195">
-        <f>(E195-B195)</f>
+        <f t="shared" si="17"/>
         <v>4.6099999999999994</v>
       </c>
       <c r="I195">
-        <f>F195-C195</f>
+        <f t="shared" si="18"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.1229909448208621</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K226" si="7">SQRT(G195*G195+H195*H195+I195*I195)</f>
+        <f t="shared" ref="K195:K226" si="19">SQRT(G195*G195+H195*H195+I195*I195)</f>
         <v>9.7174636608530722</v>
       </c>
     </row>
@@ -8330,23 +8330,23 @@
         <v>121.38</v>
       </c>
       <c r="G196">
-        <f>(D196-A196)</f>
+        <f t="shared" si="16"/>
         <v>5.3400000000000034</v>
       </c>
       <c r="H196">
-        <f>(E196-B196)</f>
+        <f t="shared" si="17"/>
         <v>4.5300000000000011</v>
       </c>
       <c r="I196">
-        <f>F196-C196</f>
+        <f t="shared" si="18"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="J196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.0026066575240424</v>
       </c>
       <c r="K196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.8829499554418128</v>
       </c>
     </row>
@@ -8370,23 +8370,23 @@
         <v>126.77</v>
       </c>
       <c r="G197">
-        <f>(D197-A197)</f>
+        <f t="shared" si="16"/>
         <v>-4.57</v>
       </c>
       <c r="H197">
-        <f>(E197-B197)</f>
+        <f t="shared" si="17"/>
         <v>-2.0799999999999983</v>
       </c>
       <c r="I197">
-        <f>F197-C197</f>
+        <f t="shared" si="18"/>
         <v>1.769999999999996</v>
       </c>
       <c r="J197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.0210855400002892</v>
       </c>
       <c r="K197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.3239271219655118</v>
       </c>
     </row>
@@ -8410,23 +8410,23 @@
         <v>126.75</v>
       </c>
       <c r="G198">
-        <f>(D198-A198)</f>
+        <f t="shared" si="16"/>
         <v>-2.2100000000000009</v>
       </c>
       <c r="H198">
-        <f>(E198-B198)</f>
+        <f t="shared" si="17"/>
         <v>-2.2899999999999991</v>
       </c>
       <c r="I198">
-        <f>F198-C198</f>
+        <f t="shared" si="18"/>
         <v>1.75</v>
       </c>
       <c r="J198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.1824833071046892</v>
       </c>
       <c r="K198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.6319003290288681</v>
       </c>
     </row>
@@ -8450,23 +8450,23 @@
         <v>124.09</v>
       </c>
       <c r="G199">
-        <f>(D199-A199)</f>
+        <f t="shared" si="16"/>
         <v>0.35999999999999943</v>
       </c>
       <c r="H199">
-        <f>(E199-B199)</f>
+        <f t="shared" si="17"/>
         <v>-1.7999999999999972</v>
       </c>
       <c r="I199">
-        <f>F199-C199</f>
+        <f t="shared" si="18"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.8356470248933996</v>
       </c>
       <c r="K199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.0488289338058419</v>
       </c>
     </row>
@@ -8490,23 +8490,23 @@
         <v>124.06</v>
       </c>
       <c r="G200">
-        <f>(D200-A200)</f>
+        <f t="shared" si="16"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="H200">
-        <f>(E200-B200)</f>
+        <f t="shared" si="17"/>
         <v>-2.1400000000000006</v>
       </c>
       <c r="I200">
-        <f>F200-C200</f>
+        <f t="shared" si="18"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.1493254755853064</v>
       </c>
       <c r="K200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.345890022997668</v>
       </c>
     </row>
@@ -8530,23 +8530,23 @@
         <v>121.3</v>
       </c>
       <c r="G201">
-        <f>(D201-A201)</f>
+        <f t="shared" si="16"/>
         <v>1.9500000000000028</v>
       </c>
       <c r="H201">
-        <f>(E201-B201)</f>
+        <f t="shared" si="17"/>
         <v>-1.0700000000000003</v>
       </c>
       <c r="I201">
-        <f>F201-C201</f>
+        <f t="shared" si="18"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.2242751628339539</v>
       </c>
       <c r="K201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3171055117983892</v>
       </c>
     </row>
@@ -8570,23 +8570,23 @@
         <v>121.28</v>
       </c>
       <c r="G202">
-        <f>(D202-A202)</f>
+        <f t="shared" si="16"/>
         <v>2.0300000000000011</v>
       </c>
       <c r="H202">
-        <f>(E202-B202)</f>
+        <f t="shared" si="17"/>
         <v>-2.8200000000000003</v>
       </c>
       <c r="I202">
-        <f>F202-C202</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.4746654515219171</v>
       </c>
       <c r="K202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.0903536222938381</v>
       </c>
     </row>
@@ -8610,23 +8610,23 @@
         <v>112.29</v>
       </c>
       <c r="G203">
-        <f>(D203-A203)</f>
+        <f t="shared" si="16"/>
         <v>4.4399999999999977</v>
       </c>
       <c r="H203">
-        <f>(E203-B203)</f>
+        <f t="shared" si="17"/>
         <v>-0.39000000000000057</v>
       </c>
       <c r="I203">
-        <f>F203-C203</f>
+        <f t="shared" si="18"/>
         <v>-12.709999999999994</v>
       </c>
       <c r="J203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.457095466781027</v>
       </c>
       <c r="K203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>13.468845533303877</v>
       </c>
     </row>
@@ -8650,23 +8650,23 @@
         <v>124.06</v>
       </c>
       <c r="G204">
-        <f>(D204-A204)</f>
+        <f t="shared" si="16"/>
         <v>4.25</v>
       </c>
       <c r="H204">
-        <f>(E204-B204)</f>
+        <f t="shared" si="17"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="I204">
-        <f>F204-C204</f>
+        <f t="shared" si="18"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.2598826274910442</v>
       </c>
       <c r="K204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3623617456602561</v>
       </c>
     </row>
@@ -8690,23 +8690,23 @@
         <v>121.28</v>
       </c>
       <c r="G205">
-        <f>(D205-A205)</f>
+        <f t="shared" si="16"/>
         <v>4.6599999999999966</v>
       </c>
       <c r="H205">
-        <f>(E205-B205)</f>
+        <f t="shared" si="17"/>
         <v>-1.33</v>
       </c>
       <c r="I205">
-        <f>F205-C205</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.8460808907817423</v>
       </c>
       <c r="K205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.1092470894538184</v>
       </c>
     </row>
@@ -8730,23 +8730,23 @@
         <v>121.28</v>
       </c>
       <c r="G206">
-        <f>(D206-A206)</f>
+        <f t="shared" si="16"/>
         <v>4.8900000000000006</v>
       </c>
       <c r="H206">
-        <f>(E206-B206)</f>
+        <f t="shared" si="17"/>
         <v>-1.2399999999999984</v>
       </c>
       <c r="I206">
-        <f>F206-C206</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.0447695685729794</v>
       </c>
       <c r="K206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.2680220165535472</v>
       </c>
     </row>
@@ -8770,23 +8770,23 @@
         <v>121.28</v>
       </c>
       <c r="G207">
-        <f>(D207-A207)</f>
+        <f t="shared" si="16"/>
         <v>3.5499999999999972</v>
       </c>
       <c r="H207">
-        <f>(E207-B207)</f>
+        <f t="shared" si="17"/>
         <v>2.259999999999998</v>
       </c>
       <c r="I207">
-        <f>F207-C207</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.2083369636947996</v>
       </c>
       <c r="K207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.6168051417153473</v>
       </c>
     </row>
@@ -8810,23 +8810,23 @@
         <v>121.28</v>
       </c>
       <c r="G208">
-        <f>(D208-A208)</f>
+        <f t="shared" si="16"/>
         <v>5.2600000000000051</v>
       </c>
       <c r="H208">
-        <f>(E208-B208)</f>
+        <f t="shared" si="17"/>
         <v>2.6300000000000026</v>
       </c>
       <c r="I208">
-        <f>F208-C208</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.880858780824453</v>
       </c>
       <c r="K208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.9586564795224701</v>
       </c>
     </row>
@@ -8850,23 +8850,23 @@
         <v>121.28</v>
       </c>
       <c r="G209">
-        <f>(D209-A209)</f>
+        <f t="shared" si="16"/>
         <v>5.1099999999999994</v>
       </c>
       <c r="H209">
-        <f>(E209-B209)</f>
+        <f t="shared" si="17"/>
         <v>2.1899999999999977</v>
       </c>
       <c r="I209">
-        <f>F209-C209</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.5595143672806522</v>
       </c>
       <c r="K209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.6892899473710941</v>
       </c>
     </row>
@@ -8890,23 +8890,23 @@
         <v>121.28</v>
       </c>
       <c r="G210">
-        <f>(D210-A210)</f>
+        <f t="shared" si="16"/>
         <v>3.4399999999999977</v>
       </c>
       <c r="H210">
-        <f>(E210-B210)</f>
+        <f t="shared" si="17"/>
         <v>4.4699999999999989</v>
       </c>
       <c r="I210">
-        <f>F210-C210</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.6404343804356039</v>
       </c>
       <c r="K210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.756692978077365</v>
       </c>
     </row>
@@ -8930,23 +8930,23 @@
         <v>118.39</v>
       </c>
       <c r="G211">
-        <f>(D211-A211)</f>
+        <f t="shared" si="16"/>
         <v>5.6700000000000017</v>
       </c>
       <c r="H211">
-        <f>(E211-B211)</f>
+        <f t="shared" si="17"/>
         <v>6.5100000000000051</v>
       </c>
       <c r="I211">
-        <f>F211-C211</f>
+        <f t="shared" si="18"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>8.6330180122596811</v>
       </c>
       <c r="K211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>10.872952680849856</v>
       </c>
     </row>
@@ -8970,23 +8970,23 @@
         <v>126.84</v>
       </c>
       <c r="G212">
-        <f>(D212-A212)</f>
+        <f t="shared" si="16"/>
         <v>-0.67000000000000171</v>
       </c>
       <c r="H212">
-        <f>(E212-B212)</f>
+        <f t="shared" si="17"/>
         <v>-2.7800000000000011</v>
       </c>
       <c r="I212">
-        <f>F212-C212</f>
+        <f t="shared" si="18"/>
         <v>1.8400000000000034</v>
       </c>
       <c r="J212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.8595978738277186</v>
       </c>
       <c r="K212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.400426443844951</v>
       </c>
     </row>
@@ -9010,23 +9010,23 @@
         <v>126.77</v>
       </c>
       <c r="G213">
-        <f>(D213-A213)</f>
+        <f t="shared" si="16"/>
         <v>7.9999999999998295E-2</v>
       </c>
       <c r="H213">
-        <f>(E213-B213)</f>
+        <f t="shared" si="17"/>
         <v>-2.6000000000000014</v>
       </c>
       <c r="I213">
-        <f>F213-C213</f>
+        <f t="shared" si="18"/>
         <v>1.769999999999996</v>
       </c>
       <c r="J213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.6012304780622588</v>
       </c>
       <c r="K213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.1463153052419894</v>
       </c>
     </row>
@@ -9050,23 +9050,23 @@
         <v>126.75</v>
       </c>
       <c r="G214">
-        <f>(D214-A214)</f>
+        <f t="shared" si="16"/>
         <v>0.20000000000000284</v>
       </c>
       <c r="H214">
-        <f>(E214-B214)</f>
+        <f t="shared" si="17"/>
         <v>-1.8500000000000014</v>
       </c>
       <c r="I214">
-        <f>F214-C214</f>
+        <f t="shared" si="18"/>
         <v>1.75</v>
       </c>
       <c r="J214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.8607794065928411</v>
       </c>
       <c r="K214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.5544079548889611</v>
       </c>
     </row>
@@ -9090,23 +9090,23 @@
         <v>126.75</v>
       </c>
       <c r="G215">
-        <f>(D215-A215)</f>
+        <f t="shared" si="16"/>
         <v>1.0999999999999943</v>
       </c>
       <c r="H215">
-        <f>(E215-B215)</f>
+        <f t="shared" si="17"/>
         <v>-0.82000000000000028</v>
       </c>
       <c r="I215">
-        <f>F215-C215</f>
+        <f t="shared" si="18"/>
         <v>1.75</v>
       </c>
       <c r="J215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.3720058308913954</v>
       </c>
       <c r="K215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.2237131109925103</v>
       </c>
     </row>
@@ -9130,23 +9130,23 @@
         <v>124.09</v>
       </c>
       <c r="G216">
-        <f>(D216-A216)</f>
+        <f t="shared" si="16"/>
         <v>3.4200000000000017</v>
       </c>
       <c r="H216">
-        <f>(E216-B216)</f>
+        <f t="shared" si="17"/>
         <v>-0.42000000000000171</v>
       </c>
       <c r="I216">
-        <f>F216-C216</f>
+        <f t="shared" si="18"/>
         <v>-0.90999999999999659</v>
       </c>
       <c r="J216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.4456929636866969</v>
       </c>
       <c r="K216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5638322070490362</v>
       </c>
     </row>
@@ -9170,23 +9170,23 @@
         <v>124.06</v>
       </c>
       <c r="G217">
-        <f>(D217-A217)</f>
+        <f t="shared" si="16"/>
         <v>2.6400000000000006</v>
       </c>
       <c r="H217">
-        <f>(E217-B217)</f>
+        <f t="shared" si="17"/>
         <v>-1.5799999999999983</v>
       </c>
       <c r="I217">
-        <f>F217-C217</f>
+        <f t="shared" si="18"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.0766865293688919</v>
       </c>
       <c r="K217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.2170794208412068</v>
       </c>
     </row>
@@ -9210,23 +9210,23 @@
         <v>121.3</v>
       </c>
       <c r="G218">
-        <f>(D218-A218)</f>
+        <f t="shared" si="16"/>
         <v>3.9000000000000057</v>
       </c>
       <c r="H218">
-        <f>(E218-B218)</f>
+        <f t="shared" si="17"/>
         <v>4.22</v>
       </c>
       <c r="I218">
-        <f>F218-C218</f>
+        <f t="shared" si="18"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="J218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.746163937793634</v>
       </c>
       <c r="K218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.8343543952592967</v>
       </c>
     </row>
@@ -9250,23 +9250,23 @@
         <v>121.56</v>
       </c>
       <c r="G219">
-        <f>(D219-A219)</f>
+        <f t="shared" si="16"/>
         <v>4.3400000000000034</v>
       </c>
       <c r="H219">
-        <f>(E219-B219)</f>
+        <f t="shared" si="17"/>
         <v>-0.52</v>
       </c>
       <c r="I219">
-        <f>F219-C219</f>
+        <f t="shared" si="18"/>
         <v>-3.4399999999999977</v>
       </c>
       <c r="J219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.371041065924687</v>
       </c>
       <c r="K219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.5623376380798764</v>
       </c>
     </row>
@@ -9290,23 +9290,23 @@
         <v>121.28</v>
       </c>
       <c r="G220">
-        <f>(D220-A220)</f>
+        <f t="shared" si="16"/>
         <v>6.7099999999999937</v>
       </c>
       <c r="H220">
-        <f>(E220-B220)</f>
+        <f t="shared" si="17"/>
         <v>0.32000000000000028</v>
       </c>
       <c r="I220">
-        <f>F220-C220</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6.7176260687835194</v>
       </c>
       <c r="K220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.6788605925618887</v>
       </c>
     </row>
@@ -9330,23 +9330,23 @@
         <v>121.28</v>
       </c>
       <c r="G221">
-        <f>(D221-A221)</f>
+        <f t="shared" si="16"/>
         <v>7.4200000000000017</v>
       </c>
       <c r="H221">
-        <f>(E221-B221)</f>
+        <f t="shared" si="17"/>
         <v>1.6400000000000006</v>
       </c>
       <c r="I221">
-        <f>F221-C221</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.5990788915499508</v>
       </c>
       <c r="K221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.4607564673615343</v>
       </c>
     </row>
@@ -9370,23 +9370,23 @@
         <v>121.28</v>
       </c>
       <c r="G222">
-        <f>(D222-A222)</f>
+        <f t="shared" si="16"/>
         <v>5.9200000000000017</v>
       </c>
       <c r="H222">
-        <f>(E222-B222)</f>
+        <f t="shared" si="17"/>
         <v>0.89999999999999858</v>
       </c>
       <c r="I222">
-        <f>F222-C222</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.9880213760473513</v>
       </c>
       <c r="K222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.0494538795569124</v>
       </c>
     </row>
@@ -9410,23 +9410,23 @@
         <v>124.06</v>
       </c>
       <c r="G223">
-        <f>(D223-A223)</f>
+        <f t="shared" si="16"/>
         <v>4.7999999999999972</v>
       </c>
       <c r="H223">
-        <f>(E223-B223)</f>
+        <f t="shared" si="17"/>
         <v>1.9399999999999977</v>
       </c>
       <c r="I223">
-        <f>F223-C223</f>
+        <f t="shared" si="18"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.1772193308763699</v>
       </c>
       <c r="K223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.2618627880247848</v>
       </c>
     </row>
@@ -9450,23 +9450,23 @@
         <v>118.39</v>
       </c>
       <c r="G224">
-        <f>(D224-A224)</f>
+        <f t="shared" si="16"/>
         <v>7.3499999999999943</v>
       </c>
       <c r="H224">
-        <f>(E224-B224)</f>
+        <f t="shared" si="17"/>
         <v>6.0900000000000034</v>
       </c>
       <c r="I224">
-        <f>F224-C224</f>
+        <f t="shared" si="18"/>
         <v>-6.6099999999999994</v>
       </c>
       <c r="J224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>9.5451872689853463</v>
       </c>
       <c r="K224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>11.610456494040186</v>
       </c>
     </row>
@@ -9490,23 +9490,23 @@
         <v>121.28</v>
       </c>
       <c r="G225">
-        <f>(D225-A225)</f>
+        <f t="shared" si="16"/>
         <v>5.8199999999999932</v>
       </c>
       <c r="H225">
-        <f>(E225-B225)</f>
+        <f t="shared" si="17"/>
         <v>3.7700000000000031</v>
       </c>
       <c r="I225">
-        <f>F225-C225</f>
+        <f t="shared" si="18"/>
         <v>-3.7199999999999989</v>
       </c>
       <c r="J225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6.9343564950181174</v>
       </c>
       <c r="K225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.8691613276129964</v>
       </c>
     </row>
@@ -9530,23 +9530,23 @@
         <v>124.06</v>
       </c>
       <c r="G226">
-        <f>(D226-A226)</f>
+        <f t="shared" si="16"/>
         <v>3.4899999999999949</v>
       </c>
       <c r="H226">
-        <f>(E226-B226)</f>
+        <f t="shared" si="17"/>
         <v>3.019999999999996</v>
       </c>
       <c r="I226">
-        <f>F226-C226</f>
+        <f t="shared" si="18"/>
         <v>-0.93999999999999773</v>
       </c>
       <c r="J226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.6152464722915871</v>
       </c>
       <c r="K226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.7099999999999929</v>
       </c>
     </row>
@@ -9629,15 +9629,15 @@
         <v>138.4</v>
       </c>
       <c r="G2">
-        <f>D2-A2</f>
+        <f t="shared" ref="G2:G27" si="0">D2-A2</f>
         <v>2.6700000000000017</v>
       </c>
       <c r="H2">
-        <f>E2-B2</f>
+        <f t="shared" ref="H2:H27" si="1">E2-B2</f>
         <v>1.9299999999999997</v>
       </c>
       <c r="I2">
-        <f>F2-C2</f>
+        <f t="shared" ref="I2:I27" si="2">F2-C2</f>
         <v>8.4000000000000057</v>
       </c>
       <c r="J2">
@@ -9669,23 +9669,23 @@
         <v>138.22999999999999</v>
       </c>
       <c r="G3">
-        <f>D3-A3</f>
+        <f t="shared" si="0"/>
         <v>4.0600000000000023</v>
       </c>
       <c r="H3">
-        <f>E3-B3</f>
+        <f t="shared" si="1"/>
         <v>2.6400000000000006</v>
       </c>
       <c r="I3">
-        <f>F3-C3</f>
+        <f t="shared" si="2"/>
         <v>8.2299999999999898</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J27" si="0">SQRT(G3*G3+H3*H3)</f>
+        <f t="shared" ref="J3:J27" si="3">SQRT(G3*G3+H3*H3)</f>
         <v>4.8428504003324342</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K27" si="1">SQRT(G3*G3+H3*H3+I3*I3)</f>
+        <f t="shared" ref="K3:K27" si="4">SQRT(G3*G3+H3*H3+I3*I3)</f>
         <v>9.5491413226530408</v>
       </c>
     </row>
@@ -9709,23 +9709,23 @@
         <v>138.44</v>
       </c>
       <c r="G4">
-        <f>D4-A4</f>
+        <f t="shared" si="0"/>
         <v>0.78000000000000114</v>
       </c>
       <c r="H4">
-        <f>E4-B4</f>
+        <f t="shared" si="1"/>
         <v>-3.18</v>
       </c>
       <c r="I4">
-        <f>F4-C4</f>
+        <f t="shared" si="2"/>
         <v>8.4399999999999977</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2742632759141412</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0528669492045424</v>
       </c>
     </row>
@@ -9749,23 +9749,23 @@
         <v>125.74</v>
       </c>
       <c r="G5">
-        <f>D5-A5</f>
+        <f t="shared" si="0"/>
         <v>-0.63000000000000256</v>
       </c>
       <c r="H5">
-        <f>E5-B5</f>
+        <f t="shared" si="1"/>
         <v>5.6300000000000026</v>
       </c>
       <c r="I5">
-        <f>F5-C5</f>
+        <f t="shared" si="2"/>
         <v>-4.2600000000000051</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.6651390097684304</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0881168161931463</v>
       </c>
     </row>
@@ -9789,23 +9789,23 @@
         <v>136.5</v>
       </c>
       <c r="G6">
-        <f>D6-A6</f>
+        <f t="shared" si="0"/>
         <v>2.5500000000000007</v>
       </c>
       <c r="H6">
-        <f>E6-B6</f>
+        <f t="shared" si="1"/>
         <v>0.26999999999999957</v>
       </c>
       <c r="I6">
-        <f>F6-C6</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5642542775629726</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.9875174418386967</v>
       </c>
     </row>
@@ -9829,23 +9829,23 @@
         <v>128.66</v>
       </c>
       <c r="G7">
-        <f>D7-A7</f>
+        <f t="shared" si="0"/>
         <v>-1.629999999999999</v>
       </c>
       <c r="H7">
-        <f>E7-B7</f>
+        <f t="shared" si="1"/>
         <v>0.53999999999999915</v>
       </c>
       <c r="I7">
-        <f>F7-C7</f>
+        <f t="shared" si="2"/>
         <v>-1.3400000000000034</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7171196813268421</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1780954983654883</v>
       </c>
     </row>
@@ -9869,23 +9869,23 @@
         <v>136.47999999999999</v>
       </c>
       <c r="G8">
-        <f>D8-A8</f>
+        <f t="shared" si="0"/>
         <v>-0.92999999999999972</v>
       </c>
       <c r="H8">
-        <f>E8-B8</f>
+        <f t="shared" si="1"/>
         <v>-1.1400000000000006</v>
       </c>
       <c r="I8">
-        <f>F8-C8</f>
+        <f t="shared" si="2"/>
         <v>6.4799999999999898</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4712239802287077</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.6449153493479409</v>
       </c>
     </row>
@@ -9909,23 +9909,23 @@
         <v>136.41</v>
       </c>
       <c r="G9">
-        <f>D9-A9</f>
+        <f t="shared" si="0"/>
         <v>-0.73999999999999844</v>
       </c>
       <c r="H9">
-        <f>E9-B9</f>
+        <f t="shared" si="1"/>
         <v>-2.87</v>
       </c>
       <c r="I9">
-        <f>F9-C9</f>
+        <f t="shared" si="2"/>
         <v>6.4099999999999966</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9638657189555668</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0620535257104891</v>
       </c>
     </row>
@@ -9949,23 +9949,23 @@
         <v>124.06</v>
       </c>
       <c r="G10">
-        <f>D10-A10</f>
+        <f t="shared" si="0"/>
         <v>-0.73000000000000043</v>
       </c>
       <c r="H10">
-        <f>E10-B10</f>
+        <f t="shared" si="1"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="I10">
-        <f>F10-C10</f>
+        <f t="shared" si="2"/>
         <v>-5.9399999999999977</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.78185676437567597</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9912352649516256</v>
       </c>
     </row>
@@ -9989,23 +9989,23 @@
         <v>135.32</v>
       </c>
       <c r="G11">
-        <f>D11-A11</f>
+        <f t="shared" si="0"/>
         <v>-0.1899999999999995</v>
       </c>
       <c r="H11">
-        <f>E11-B11</f>
+        <f t="shared" si="1"/>
         <v>-3.26</v>
       </c>
       <c r="I11">
-        <f>F11-C11</f>
+        <f t="shared" si="2"/>
         <v>5.3199999999999932</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2655321159039299</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2422832361244174</v>
       </c>
     </row>
@@ -10029,23 +10029,23 @@
         <v>132.54</v>
       </c>
       <c r="G12">
-        <f>D12-A12</f>
+        <f t="shared" si="0"/>
         <v>-2.4499999999999993</v>
       </c>
       <c r="H12">
-        <f>E12-B12</f>
+        <f t="shared" si="1"/>
         <v>-3.5999999999999996</v>
       </c>
       <c r="I12">
-        <f>F12-C12</f>
+        <f t="shared" si="2"/>
         <v>2.539999999999992</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3545952739606006</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0412399268433905</v>
       </c>
     </row>
@@ -10069,23 +10069,23 @@
         <v>137.22</v>
       </c>
       <c r="G13">
-        <f>D13-A13</f>
+        <f t="shared" si="0"/>
         <v>-2.36</v>
       </c>
       <c r="H13">
-        <f>E13-B13</f>
+        <f t="shared" si="1"/>
         <v>-0.28000000000000114</v>
       </c>
       <c r="I13">
-        <f>F13-C13</f>
+        <f t="shared" si="2"/>
         <v>7.2199999999999989</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3765521244020715</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.6010788707919605</v>
       </c>
     </row>
@@ -10109,23 +10109,23 @@
         <v>139.46</v>
       </c>
       <c r="G14">
-        <f>D14-A14</f>
+        <f t="shared" si="0"/>
         <v>-0.36</v>
       </c>
       <c r="H14">
-        <f>E14-B14</f>
+        <f t="shared" si="1"/>
         <v>-2.9699999999999989</v>
       </c>
       <c r="I14">
-        <f>F14-C14</f>
+        <f t="shared" si="2"/>
         <v>9.460000000000008</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9917386249470379</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9217992319941715</v>
       </c>
     </row>
@@ -10149,23 +10149,23 @@
         <v>134.66</v>
       </c>
       <c r="G15">
-        <f>D15-A15</f>
+        <f t="shared" si="0"/>
         <v>-0.76</v>
       </c>
       <c r="H15">
-        <f>E15-B15</f>
+        <f t="shared" si="1"/>
         <v>-3.66</v>
       </c>
       <c r="I15">
-        <f>F15-C15</f>
+        <f t="shared" si="2"/>
         <v>4.6599999999999966</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.7380743705817308</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9740103782969758</v>
       </c>
     </row>
@@ -10189,23 +10189,23 @@
         <v>129.35</v>
       </c>
       <c r="G16">
-        <f>D16-A16</f>
+        <f t="shared" si="0"/>
         <v>-2.36</v>
       </c>
       <c r="H16">
-        <f>E16-B16</f>
+        <f t="shared" si="1"/>
         <v>-1.1400000000000006</v>
       </c>
       <c r="I16">
-        <f>F16-C16</f>
+        <f t="shared" si="2"/>
         <v>-0.65000000000000568</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6209158704544486</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7003147964635548</v>
       </c>
     </row>
@@ -10229,23 +10229,23 @@
         <v>124.66</v>
       </c>
       <c r="G17">
-        <f>D17-A17</f>
+        <f t="shared" si="0"/>
         <v>-2.57</v>
       </c>
       <c r="H17">
-        <f>E17-B17</f>
+        <f t="shared" si="1"/>
         <v>3.7999999999999972</v>
       </c>
       <c r="I17">
-        <f>F17-C17</f>
+        <f t="shared" si="2"/>
         <v>-5.3400000000000034</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5874720707596657</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0399218745665078</v>
       </c>
     </row>
@@ -10269,23 +10269,23 @@
         <v>135.44</v>
       </c>
       <c r="G18">
-        <f>D18-A18</f>
+        <f t="shared" si="0"/>
         <v>-0.91999999999999993</v>
       </c>
       <c r="H18">
-        <f>E18-B18</f>
+        <f t="shared" si="1"/>
         <v>-3.1999999999999993</v>
       </c>
       <c r="I18">
-        <f>F18-C18</f>
+        <f t="shared" si="2"/>
         <v>5.4399999999999977</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3296246034650805</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.3780874876407871</v>
       </c>
     </row>
@@ -10309,23 +10309,23 @@
         <v>135.88999999999999</v>
       </c>
       <c r="G19">
-        <f>D19-A19</f>
+        <f t="shared" si="0"/>
         <v>-0.97000000000000064</v>
       </c>
       <c r="H19">
-        <f>E19-B19</f>
+        <f t="shared" si="1"/>
         <v>-2.6900000000000004</v>
       </c>
       <c r="I19">
-        <f>F19-C19</f>
+        <f t="shared" si="2"/>
         <v>5.8899999999999864</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8595454184188092</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.5474498852606615</v>
       </c>
     </row>
@@ -10349,23 +10349,23 @@
         <v>135.91999999999999</v>
       </c>
       <c r="G20">
-        <f>D20-A20</f>
+        <f t="shared" si="0"/>
         <v>-1.4200000000000017</v>
       </c>
       <c r="H20">
-        <f>E20-B20</f>
+        <f t="shared" si="1"/>
         <v>-3.2100000000000009</v>
       </c>
       <c r="I20">
-        <f>F20-C20</f>
+        <f t="shared" si="2"/>
         <v>5.9199999999999875</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5100569795944923</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.882361513317929</v>
       </c>
     </row>
@@ -10389,23 +10389,23 @@
         <v>137.63999999999999</v>
       </c>
       <c r="G21">
-        <f>D21-A21</f>
+        <f t="shared" si="0"/>
         <v>-1.2300000000000004</v>
       </c>
       <c r="H21">
-        <f>E21-B21</f>
+        <f t="shared" si="1"/>
         <v>-2.62</v>
       </c>
       <c r="I21">
-        <f>F21-C21</f>
+        <f t="shared" si="2"/>
         <v>7.6399999999999864</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8943565778942997</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.1698776000623035</v>
       </c>
     </row>
@@ -10429,23 +10429,23 @@
         <v>126.75</v>
       </c>
       <c r="G22">
-        <f>D22-A22</f>
+        <f t="shared" si="0"/>
         <v>-0.21000000000000085</v>
       </c>
       <c r="H22">
-        <f>E22-B22</f>
+        <f t="shared" si="1"/>
         <v>-1.9200000000000017</v>
       </c>
       <c r="I22">
-        <f>F22-C22</f>
+        <f t="shared" si="2"/>
         <v>-3.25</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9314502323383864</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7806084166440734</v>
       </c>
     </row>
@@ -10469,23 +10469,23 @@
         <v>136.44</v>
       </c>
       <c r="G23">
-        <f>D23-A23</f>
+        <f t="shared" si="0"/>
         <v>-1.0799999999999983</v>
       </c>
       <c r="H23">
-        <f>E23-B23</f>
+        <f t="shared" si="1"/>
         <v>-1.8000000000000007</v>
       </c>
       <c r="I23">
-        <f>F23-C23</f>
+        <f t="shared" si="2"/>
         <v>6.4399999999999977</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0991426821443078</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.7734776887504378</v>
       </c>
     </row>
@@ -10509,23 +10509,23 @@
         <v>126.88</v>
       </c>
       <c r="G24">
-        <f>D24-A24</f>
+        <f t="shared" si="0"/>
         <v>3.9799999999999969</v>
       </c>
       <c r="H24">
-        <f>E24-B24</f>
+        <f t="shared" si="1"/>
         <v>0.23999999999999844</v>
       </c>
       <c r="I24">
-        <f>F24-C24</f>
+        <f t="shared" si="2"/>
         <v>-3.1200000000000045</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9872296146572714</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0628450499694342</v>
       </c>
     </row>
@@ -10549,23 +10549,23 @@
         <v>136.94999999999999</v>
       </c>
       <c r="G25">
-        <f>D25-A25</f>
+        <f t="shared" si="0"/>
         <v>-0.50999999999999801</v>
       </c>
       <c r="H25">
-        <f>E25-B25</f>
+        <f t="shared" si="1"/>
         <v>-1.4200000000000017</v>
       </c>
       <c r="I25">
-        <f>F25-C25</f>
+        <f t="shared" si="2"/>
         <v>6.9499999999999886</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5088074761214576</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1118914502402131</v>
       </c>
     </row>
@@ -10589,23 +10589,23 @@
         <v>138.44</v>
       </c>
       <c r="G26">
-        <f>D26-A26</f>
+        <f t="shared" si="0"/>
         <v>-1.5499999999999972</v>
       </c>
       <c r="H26">
-        <f>E26-B26</f>
+        <f t="shared" si="1"/>
         <v>-3.55</v>
       </c>
       <c r="I26">
-        <f>F26-C26</f>
+        <f t="shared" si="2"/>
         <v>8.4399999999999977</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.8736287896493113</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2864740348530539</v>
       </c>
     </row>
@@ -10629,23 +10629,23 @@
         <v>125.44</v>
       </c>
       <c r="G27">
-        <f>D27-A27</f>
+        <f t="shared" si="0"/>
         <v>5.8500000000000014</v>
       </c>
       <c r="H27">
-        <f>E27-B27</f>
+        <f t="shared" si="1"/>
         <v>2.7800000000000011</v>
       </c>
       <c r="I27">
-        <f>F27-C27</f>
+        <f t="shared" si="2"/>
         <v>-4.5600000000000023</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4769514433875468</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.9211425943483711</v>
       </c>
     </row>
@@ -10728,15 +10728,15 @@
         <v>140.19999999999999</v>
       </c>
       <c r="G2">
-        <f>D2-A2</f>
+        <f t="shared" ref="G2:G19" si="0">D2-A2</f>
         <v>-2.980000000000004</v>
       </c>
       <c r="H2">
-        <f>E2-B2</f>
+        <f t="shared" ref="H2:H19" si="1">E2-B2</f>
         <v>-0.28000000000000003</v>
       </c>
       <c r="I2">
-        <f>F2-C2</f>
+        <f t="shared" ref="I2:I19" si="2">F2-C2</f>
         <v>5.1999999999999886</v>
       </c>
       <c r="J2">
@@ -10768,23 +10768,23 @@
         <v>134.31</v>
       </c>
       <c r="G3">
-        <f>D3-A3</f>
+        <f t="shared" si="0"/>
         <v>-1.9200000000000017</v>
       </c>
       <c r="H3">
-        <f>E3-B3</f>
+        <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
       <c r="I3">
-        <f>F3-C3</f>
+        <f t="shared" si="2"/>
         <v>-0.68999999999999773</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="0">SQRT(G3*G3+H3*H3)</f>
+        <f t="shared" ref="J3:J19" si="3">SQRT(G3*G3+H3*H3)</f>
         <v>3.1522055770523605</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K19" si="1">SQRT(G3*G3+H3*H3+I3*I3)</f>
+        <f t="shared" ref="K3:K19" si="4">SQRT(G3*G3+H3*H3+I3*I3)</f>
         <v>3.2268405600525112</v>
       </c>
     </row>
@@ -10808,23 +10808,23 @@
         <v>148.66999999999999</v>
       </c>
       <c r="G4">
-        <f>D4-A4</f>
+        <f t="shared" si="0"/>
         <v>3.9200000000000017</v>
       </c>
       <c r="H4">
-        <f>E4-B4</f>
+        <f t="shared" si="1"/>
         <v>0.39000000000000057</v>
       </c>
       <c r="I4">
-        <f>F4-C4</f>
+        <f t="shared" si="2"/>
         <v>13.669999999999987</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9393527387122891</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.226292559904694</v>
       </c>
     </row>
@@ -10848,23 +10848,23 @@
         <v>133.16999999999999</v>
       </c>
       <c r="G5">
-        <f>D5-A5</f>
+        <f t="shared" si="0"/>
         <v>-4.3999999999999986</v>
       </c>
       <c r="H5">
-        <f>E5-B5</f>
+        <f t="shared" si="1"/>
         <v>3.0600000000000023</v>
       </c>
       <c r="I5">
-        <f>F5-C5</f>
+        <f t="shared" si="2"/>
         <v>-1.8300000000000125</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.3594402692818592</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.663258779183594</v>
       </c>
     </row>
@@ -10888,23 +10888,23 @@
         <v>142.25</v>
       </c>
       <c r="G6">
-        <f>D6-A6</f>
+        <f t="shared" si="0"/>
         <v>0.53000000000000114</v>
       </c>
       <c r="H6">
-        <f>E6-B6</f>
+        <f t="shared" si="1"/>
         <v>-3.96</v>
       </c>
       <c r="I6">
-        <f>F6-C6</f>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9953097501945956</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.2779828460803184</v>
       </c>
     </row>
@@ -10928,15 +10928,15 @@
         <v>138.41999999999999</v>
       </c>
       <c r="G7">
-        <f>D7-A7</f>
+        <f t="shared" si="0"/>
         <v>-1.2199999999999989</v>
       </c>
       <c r="H7">
-        <f>E7-B7</f>
+        <f t="shared" si="1"/>
         <v>-7.0000000000000284E-2</v>
       </c>
       <c r="I7">
-        <f>F7-C7</f>
+        <f t="shared" si="2"/>
         <v>3.4199999999999875</v>
       </c>
       <c r="J7">
@@ -10944,7 +10944,7 @@
         <v>1.2220065466273073</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.6317626574433404</v>
       </c>
     </row>
@@ -10968,23 +10968,23 @@
         <v>145.22999999999999</v>
       </c>
       <c r="G8">
-        <f>D8-A8</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999929</v>
       </c>
       <c r="H8">
-        <f>E8-B8</f>
+        <f t="shared" si="1"/>
         <v>-5.77</v>
       </c>
       <c r="I8">
-        <f>F8-C8</f>
+        <f t="shared" si="2"/>
         <v>10.22999999999999</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.7734651640067938</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.746735716785315</v>
       </c>
     </row>
@@ -11008,23 +11008,23 @@
         <v>150.44</v>
       </c>
       <c r="G9">
-        <f>D9-A9</f>
+        <f t="shared" si="0"/>
         <v>-2.86</v>
       </c>
       <c r="H9">
-        <f>E9-B9</f>
+        <f t="shared" si="1"/>
         <v>-1.6400000000000006</v>
       </c>
       <c r="I9">
-        <f>F9-C9</f>
+        <f t="shared" si="2"/>
         <v>15.439999999999998</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2968469785539032</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.788058778709939</v>
       </c>
     </row>
@@ -11048,23 +11048,23 @@
         <v>148.22</v>
       </c>
       <c r="G10">
-        <f>D10-A10</f>
+        <f t="shared" si="0"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="H10">
-        <f>E10-B10</f>
+        <f t="shared" si="1"/>
         <v>-1.5299999999999994</v>
       </c>
       <c r="I10">
-        <f>F10-C10</f>
+        <f t="shared" si="2"/>
         <v>13.219999999999999</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9080094339389411</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.356979448962253</v>
       </c>
     </row>
@@ -11088,23 +11088,23 @@
         <v>145.6</v>
       </c>
       <c r="G11">
-        <f>D11-A11</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="H11">
-        <f>E11-B11</f>
+        <f t="shared" si="1"/>
         <v>-4.75</v>
       </c>
       <c r="I11">
-        <f>F11-C11</f>
+        <f t="shared" si="2"/>
         <v>10.599999999999994</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8088460154178359</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.639802403821118</v>
       </c>
     </row>
@@ -11128,23 +11128,23 @@
         <v>141.13</v>
       </c>
       <c r="G12">
-        <f>D12-A12</f>
+        <f t="shared" si="0"/>
         <v>-0.3</v>
       </c>
       <c r="H12">
-        <f>E12-B12</f>
+        <f t="shared" si="1"/>
         <v>-3.76</v>
       </c>
       <c r="I12">
-        <f>F12-C12</f>
+        <f t="shared" si="2"/>
         <v>6.1299999999999955</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.7719490982779709</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1975343000224701</v>
       </c>
     </row>
@@ -11168,23 +11168,23 @@
         <v>129.28</v>
       </c>
       <c r="G13">
-        <f>D13-A13</f>
+        <f t="shared" si="0"/>
         <v>-1.42</v>
       </c>
       <c r="H13">
-        <f>E13-B13</f>
+        <f t="shared" si="1"/>
         <v>-0.21000000000000085</v>
       </c>
       <c r="I13">
-        <f>F13-C13</f>
+        <f t="shared" si="2"/>
         <v>-5.7199999999999989</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4354441821262156</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.8973638178426793</v>
       </c>
     </row>
@@ -11208,23 +11208,23 @@
         <v>131.97999999999999</v>
       </c>
       <c r="G14">
-        <f>D14-A14</f>
+        <f t="shared" si="0"/>
         <v>-0.22</v>
       </c>
       <c r="H14">
-        <f>E14-B14</f>
+        <f t="shared" si="1"/>
         <v>5.1199999999999974</v>
       </c>
       <c r="I14">
-        <f>F14-C14</f>
+        <f t="shared" si="2"/>
         <v>-3.0200000000000102</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.1247243828326976</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9483779301587791</v>
       </c>
     </row>
@@ -11248,23 +11248,23 @@
         <v>146.38</v>
       </c>
       <c r="G15">
-        <f>D15-A15</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H15">
-        <f>E15-B15</f>
+        <f t="shared" si="1"/>
         <v>-6.27</v>
       </c>
       <c r="I15">
-        <f>F15-C15</f>
+        <f t="shared" si="2"/>
         <v>11.379999999999995</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4469295017085448</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.079269857297076</v>
       </c>
     </row>
@@ -11288,23 +11288,23 @@
         <v>148.33000000000001</v>
       </c>
       <c r="G16">
-        <f>D16-A16</f>
+        <f t="shared" si="0"/>
         <v>-3.129999999999999</v>
       </c>
       <c r="H16">
-        <f>E16-B16</f>
+        <f t="shared" si="1"/>
         <v>-5.8999999999999986</v>
       </c>
       <c r="I16">
-        <f>F16-C16</f>
+        <f t="shared" si="2"/>
         <v>13.330000000000013</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.6788397195920171</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.909587519445342</v>
       </c>
     </row>
@@ -11328,23 +11328,23 @@
         <v>134.29</v>
       </c>
       <c r="G17">
-        <f>D17-A17</f>
+        <f t="shared" si="0"/>
         <v>1.0799999999999983</v>
       </c>
       <c r="H17">
-        <f>E17-B17</f>
+        <f t="shared" si="1"/>
         <v>-2.7899999999999991</v>
       </c>
       <c r="I17">
-        <f>F17-C17</f>
+        <f t="shared" si="2"/>
         <v>-0.71000000000000796</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9917386249470375</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0748333288163772</v>
       </c>
     </row>
@@ -11368,23 +11368,23 @@
         <v>148.22</v>
       </c>
       <c r="G18">
-        <f>D18-A18</f>
+        <f t="shared" si="0"/>
         <v>0.76000000000000156</v>
       </c>
       <c r="H18">
-        <f>E18-B18</f>
+        <f t="shared" si="1"/>
         <v>-5.76</v>
       </c>
       <c r="I18">
-        <f>F18-C18</f>
+        <f t="shared" si="2"/>
         <v>13.219999999999999</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8099225468159217</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.440346256236378</v>
       </c>
     </row>
@@ -11408,23 +11408,23 @@
         <v>129.63999999999999</v>
       </c>
       <c r="G19">
-        <f>D19-A19</f>
+        <f t="shared" si="0"/>
         <v>6.6700000000000017</v>
       </c>
       <c r="H19">
-        <f>E19-B19</f>
+        <f t="shared" si="1"/>
         <v>-1.1599999999999966</v>
       </c>
       <c r="I19">
-        <f>F19-C19</f>
+        <f t="shared" si="2"/>
         <v>-5.3600000000000136</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7701181673586772</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.6350506657459842</v>
       </c>
     </row>
@@ -11441,8 +11441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Encode_Decode/draw/data/data_position.xlsx
+++ b/Encode_Decode/draw/data/data_position.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\OOC\LEDs_Data_Processing\Encode_Decode\draw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBE1A8-DDC6-4A50-A80F-6064EAD30E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B20ED-5731-454F-9832-D83FCE6575D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yaw0pitch0roll0" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="yaw0pitch20roll10" sheetId="3" r:id="rId3"/>
     <sheet name="yaw90pitch0roll0" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">yaw0pitch0roll0!$J$1:$J$226</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1090,7 @@
         <v>68.680000000000007</v>
       </c>
       <c r="F15" s="1">
-        <v>115.4</v>
+        <v>118.4</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1099,15 +1102,15 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>-9.5999999999999943</v>
+        <v>-6.5999999999999943</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> SQRT(G15*G15+H15*H15)</f>
         <v>10.73119285075057</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>14.398558955673309</v>
+        <v>12.598353066968716</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,7 +1530,7 @@
         <v>24.04</v>
       </c>
       <c r="F26" s="1">
-        <v>112.29</v>
+        <v>117.29</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -1539,7 +1542,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>-12.709999999999994</v>
+        <v>-7.7099999999999937</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>13.646164296240897</v>
+        <v>9.1715756552513863</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,7 +2410,7 @@
         <v>-62.16</v>
       </c>
       <c r="F48" s="1">
-        <v>112.32</v>
+        <v>116.32</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>-12.680000000000007</v>
+        <v>-8.6800000000000068</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="3"/>
-        <v>13.264448725823481</v>
+        <v>9.5134431201326954</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,10 +3527,10 @@
         <v>-32.96</v>
       </c>
       <c r="E76" s="1">
-        <v>81.48</v>
+        <v>78.48</v>
       </c>
       <c r="F76" s="1">
-        <v>112.29</v>
+        <v>120.29</v>
       </c>
       <c r="G76">
         <f t="shared" si="5"/>
@@ -3535,19 +3538,19 @@
       </c>
       <c r="H76">
         <f t="shared" si="6"/>
-        <v>11.480000000000004</v>
+        <v>8.480000000000004</v>
       </c>
       <c r="I76">
         <f t="shared" si="7"/>
-        <v>-12.709999999999994</v>
+        <v>-4.7099999999999937</v>
       </c>
       <c r="J76">
-        <f t="shared" si="8"/>
-        <v>11.855462875822273</v>
+        <f xml:space="preserve"> SQRT(G76*G76+H76*H76)</f>
+        <v>8.9817592931451955</v>
       </c>
       <c r="K76">
         <f t="shared" si="9"/>
-        <v>17.380911943853807</v>
+        <v>10.141799643061384</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3887,7 +3890,7 @@
         <v>13.78</v>
       </c>
       <c r="F85" s="1">
-        <v>109.07</v>
+        <v>115.07</v>
       </c>
       <c r="G85">
         <f t="shared" si="5"/>
@@ -3899,7 +3902,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="7"/>
-        <v>-15.930000000000007</v>
+        <v>-9.9300000000000068</v>
       </c>
       <c r="J85">
         <f t="shared" si="8"/>
@@ -3907,7 +3910,7 @@
       </c>
       <c r="K85">
         <f t="shared" si="9"/>
-        <v>16.593471607834214</v>
+        <v>10.962814419664328</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6927,7 +6930,7 @@
         <v>23.03</v>
       </c>
       <c r="F161" s="1">
-        <v>112.32</v>
+        <v>116.32</v>
       </c>
       <c r="G161">
         <f t="shared" si="10"/>
@@ -6939,7 +6942,7 @@
       </c>
       <c r="I161">
         <f t="shared" si="12"/>
-        <v>-12.680000000000007</v>
+        <v>-8.6800000000000068</v>
       </c>
       <c r="J161">
         <f t="shared" si="13"/>
@@ -6947,7 +6950,7 @@
       </c>
       <c r="K161">
         <f t="shared" si="14"/>
-        <v>13.085877884192568</v>
+        <v>9.2628397373591707</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -8607,7 +8610,7 @@
         <v>-10.39</v>
       </c>
       <c r="F203" s="1">
-        <v>112.29</v>
+        <v>116.29</v>
       </c>
       <c r="G203">
         <f t="shared" si="16"/>
@@ -8619,7 +8622,7 @@
       </c>
       <c r="I203">
         <f t="shared" si="18"/>
-        <v>-12.709999999999994</v>
+        <v>-8.7099999999999937</v>
       </c>
       <c r="J203">
         <f t="shared" si="15"/>
@@ -8627,7 +8630,7 @@
       </c>
       <c r="K203">
         <f t="shared" si="19"/>
-        <v>13.468845533303877</v>
+        <v>9.7841606691631888</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -11441,7 +11444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
